--- a/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22390100</v>
+        <v>16245800</v>
       </c>
       <c r="E8" s="3">
-        <v>19291300</v>
+        <v>22882800</v>
       </c>
       <c r="F8" s="3">
-        <v>17504800</v>
+        <v>19715800</v>
       </c>
       <c r="G8" s="3">
-        <v>19339000</v>
+        <v>17890000</v>
       </c>
       <c r="H8" s="3">
-        <v>21832400</v>
+        <v>19764500</v>
       </c>
       <c r="I8" s="3">
-        <v>19841300</v>
+        <v>22312800</v>
       </c>
       <c r="J8" s="3">
+        <v>20277800</v>
+      </c>
+      <c r="K8" s="3">
         <v>17758400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17637200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24157700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>18645300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16797300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16885000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>21265800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14981000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16214500</v>
+        <v>12063900</v>
       </c>
       <c r="E9" s="3">
-        <v>13572800</v>
+        <v>16571200</v>
       </c>
       <c r="F9" s="3">
-        <v>12267200</v>
+        <v>13871400</v>
       </c>
       <c r="G9" s="3">
-        <v>14710700</v>
+        <v>12537100</v>
       </c>
       <c r="H9" s="3">
-        <v>15499600</v>
+        <v>15034400</v>
       </c>
       <c r="I9" s="3">
-        <v>13953900</v>
+        <v>15840700</v>
       </c>
       <c r="J9" s="3">
+        <v>14260900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12768200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13214300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17387200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13333600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12388000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12504000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>15804400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>11304200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6175700</v>
+        <v>4181900</v>
       </c>
       <c r="E10" s="3">
-        <v>5718500</v>
+        <v>6311600</v>
       </c>
       <c r="F10" s="3">
-        <v>5237600</v>
+        <v>5844300</v>
       </c>
       <c r="G10" s="3">
-        <v>4628200</v>
+        <v>5352800</v>
       </c>
       <c r="H10" s="3">
-        <v>6332800</v>
+        <v>4730000</v>
       </c>
       <c r="I10" s="3">
-        <v>5887400</v>
+        <v>6472100</v>
       </c>
       <c r="J10" s="3">
+        <v>6017000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4990200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4423000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6770500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5311700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4409400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4381000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5461500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3676700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,8 +897,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -932,8 +945,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,31 +995,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1020,14 +1039,17 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>994100</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1073,8 +1095,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19661900</v>
+        <v>15916500</v>
       </c>
       <c r="E17" s="3">
-        <v>16755600</v>
+        <v>20094500</v>
       </c>
       <c r="F17" s="3">
-        <v>15405700</v>
+        <v>17124300</v>
       </c>
       <c r="G17" s="3">
-        <v>18586900</v>
+        <v>15744700</v>
       </c>
       <c r="H17" s="3">
-        <v>18405600</v>
+        <v>18995900</v>
       </c>
       <c r="I17" s="3">
-        <v>17664100</v>
+        <v>18810500</v>
       </c>
       <c r="J17" s="3">
+        <v>18052800</v>
+      </c>
+      <c r="K17" s="3">
         <v>15985800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17436700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>20986200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16799100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>15372500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16047700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>20446500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14575200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2728200</v>
+        <v>329300</v>
       </c>
       <c r="E18" s="3">
-        <v>2535700</v>
+        <v>2788200</v>
       </c>
       <c r="F18" s="3">
-        <v>2099100</v>
+        <v>2591500</v>
       </c>
       <c r="G18" s="3">
-        <v>752000</v>
+        <v>2145300</v>
       </c>
       <c r="H18" s="3">
-        <v>3426800</v>
+        <v>768600</v>
       </c>
       <c r="I18" s="3">
-        <v>2177200</v>
+        <v>3502200</v>
       </c>
       <c r="J18" s="3">
+        <v>2225100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1772600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3171600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1846200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1424800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>837200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>819300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>405800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1202,243 +1234,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102900</v>
+        <v>-345000</v>
       </c>
       <c r="E20" s="3">
-        <v>-128000</v>
+        <v>105100</v>
       </c>
       <c r="F20" s="3">
-        <v>45200</v>
+        <v>-130800</v>
       </c>
       <c r="G20" s="3">
-        <v>287900</v>
+        <v>46200</v>
       </c>
       <c r="H20" s="3">
-        <v>-299500</v>
+        <v>294200</v>
       </c>
       <c r="I20" s="3">
-        <v>97800</v>
+        <v>-306100</v>
       </c>
       <c r="J20" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1094400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-98800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-37800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-26500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-38000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-34500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-198700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3662400</v>
+        <v>1240800</v>
       </c>
       <c r="E21" s="3">
-        <v>3285200</v>
+        <v>3743000</v>
       </c>
       <c r="F21" s="3">
-        <v>2993400</v>
+        <v>3357500</v>
       </c>
       <c r="G21" s="3">
-        <v>1909100</v>
+        <v>3059300</v>
       </c>
       <c r="H21" s="3">
-        <v>4096100</v>
+        <v>1951100</v>
       </c>
       <c r="I21" s="3">
-        <v>3052900</v>
+        <v>4186300</v>
       </c>
       <c r="J21" s="3">
+        <v>3120100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3651000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1035200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3931300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2603500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2139500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1401400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1316900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1174200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>10300</v>
+        <v>21300</v>
       </c>
       <c r="E22" s="3">
-        <v>25300</v>
+        <v>10500</v>
       </c>
       <c r="F22" s="3">
-        <v>44400</v>
+        <v>25900</v>
       </c>
       <c r="G22" s="3">
-        <v>16000</v>
+        <v>45300</v>
       </c>
       <c r="H22" s="3">
-        <v>31900</v>
+        <v>16400</v>
       </c>
       <c r="I22" s="3">
-        <v>35200</v>
+        <v>32600</v>
       </c>
       <c r="J22" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K22" s="3">
         <v>30200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>33300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2820800</v>
+        <v>-37000</v>
       </c>
       <c r="E23" s="3">
-        <v>2382400</v>
+        <v>2882900</v>
       </c>
       <c r="F23" s="3">
-        <v>2100000</v>
+        <v>2434900</v>
       </c>
       <c r="G23" s="3">
-        <v>1023800</v>
+        <v>2146200</v>
       </c>
       <c r="H23" s="3">
-        <v>3095400</v>
+        <v>1046400</v>
       </c>
       <c r="I23" s="3">
-        <v>2239800</v>
+        <v>3163500</v>
       </c>
       <c r="J23" s="3">
+        <v>2289000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2836900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3101800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1795000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1346000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>779300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>587400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>359400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>636100</v>
+        <v>-183300</v>
       </c>
       <c r="E24" s="3">
-        <v>562900</v>
+        <v>650100</v>
       </c>
       <c r="F24" s="3">
-        <v>591000</v>
+        <v>575300</v>
       </c>
       <c r="G24" s="3">
-        <v>103000</v>
+        <v>604000</v>
       </c>
       <c r="H24" s="3">
-        <v>-915600</v>
+        <v>105300</v>
       </c>
       <c r="I24" s="3">
-        <v>538700</v>
+        <v>-935700</v>
       </c>
       <c r="J24" s="3">
+        <v>550600</v>
+      </c>
+      <c r="K24" s="3">
         <v>683800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>120100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>255200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>504000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>492600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>382500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>327800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2184700</v>
+        <v>146300</v>
       </c>
       <c r="E26" s="3">
-        <v>1819500</v>
+        <v>2232800</v>
       </c>
       <c r="F26" s="3">
-        <v>1509000</v>
+        <v>1859600</v>
       </c>
       <c r="G26" s="3">
-        <v>920800</v>
+        <v>1542200</v>
       </c>
       <c r="H26" s="3">
-        <v>4011000</v>
+        <v>941100</v>
       </c>
       <c r="I26" s="3">
-        <v>1701000</v>
+        <v>4099200</v>
       </c>
       <c r="J26" s="3">
+        <v>1738400</v>
+      </c>
+      <c r="K26" s="3">
         <v>2153100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-43600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2846600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1291000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>853400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>396700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>259600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2086500</v>
+        <v>117500</v>
       </c>
       <c r="E27" s="3">
-        <v>1707900</v>
+        <v>2132400</v>
       </c>
       <c r="F27" s="3">
-        <v>1382800</v>
+        <v>1745500</v>
       </c>
       <c r="G27" s="3">
-        <v>798700</v>
+        <v>1413200</v>
       </c>
       <c r="H27" s="3">
-        <v>3899300</v>
+        <v>816200</v>
       </c>
       <c r="I27" s="3">
-        <v>1572600</v>
+        <v>3985100</v>
       </c>
       <c r="J27" s="3">
+        <v>1607200</v>
+      </c>
+      <c r="K27" s="3">
         <v>2058400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-152100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2674900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1182900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>731100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>245300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>174100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1672,8 +1732,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102900</v>
+        <v>345000</v>
       </c>
       <c r="E32" s="3">
-        <v>128000</v>
+        <v>-105100</v>
       </c>
       <c r="F32" s="3">
-        <v>-45200</v>
+        <v>130800</v>
       </c>
       <c r="G32" s="3">
-        <v>-287900</v>
+        <v>-46200</v>
       </c>
       <c r="H32" s="3">
-        <v>299500</v>
+        <v>-294200</v>
       </c>
       <c r="I32" s="3">
-        <v>-97800</v>
+        <v>306100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1094400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>98800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>37800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>26500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>38000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>34500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>198700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2086500</v>
+        <v>117500</v>
       </c>
       <c r="E33" s="3">
-        <v>1707900</v>
+        <v>2132400</v>
       </c>
       <c r="F33" s="3">
-        <v>1382800</v>
+        <v>1745500</v>
       </c>
       <c r="G33" s="3">
-        <v>798700</v>
+        <v>1413200</v>
       </c>
       <c r="H33" s="3">
-        <v>3899300</v>
+        <v>816200</v>
       </c>
       <c r="I33" s="3">
-        <v>1572600</v>
+        <v>3985100</v>
       </c>
       <c r="J33" s="3">
+        <v>1607200</v>
+      </c>
+      <c r="K33" s="3">
         <v>2058400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-152100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2674900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1182900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>731100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>245300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>174100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2086500</v>
+        <v>117500</v>
       </c>
       <c r="E35" s="3">
-        <v>1707900</v>
+        <v>2132400</v>
       </c>
       <c r="F35" s="3">
-        <v>1382800</v>
+        <v>1745500</v>
       </c>
       <c r="G35" s="3">
-        <v>798700</v>
+        <v>1413200</v>
       </c>
       <c r="H35" s="3">
-        <v>3899300</v>
+        <v>816200</v>
       </c>
       <c r="I35" s="3">
-        <v>1572600</v>
+        <v>3985100</v>
       </c>
       <c r="J35" s="3">
+        <v>1607200</v>
+      </c>
+      <c r="K35" s="3">
         <v>2058400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-152100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2674900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1182900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>731100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>245300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>174100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,431 +2129,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12806700</v>
+        <v>14049800</v>
       </c>
       <c r="E41" s="3">
-        <v>11388600</v>
+        <v>13088500</v>
       </c>
       <c r="F41" s="3">
-        <v>11003500</v>
+        <v>11639200</v>
       </c>
       <c r="G41" s="3">
-        <v>13363000</v>
+        <v>11245600</v>
       </c>
       <c r="H41" s="3">
-        <v>13460600</v>
+        <v>13657000</v>
       </c>
       <c r="I41" s="3">
-        <v>14005700</v>
+        <v>13756800</v>
       </c>
       <c r="J41" s="3">
+        <v>14313800</v>
+      </c>
+      <c r="K41" s="3">
         <v>13720900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14340400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12013500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9047500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8896900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8516500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6844800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4658400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>14245500</v>
+        <v>17165800</v>
       </c>
       <c r="E42" s="3">
-        <v>13139900</v>
+        <v>14558900</v>
       </c>
       <c r="F42" s="3">
-        <v>12709600</v>
+        <v>13429000</v>
       </c>
       <c r="G42" s="3">
-        <v>12040100</v>
+        <v>12989200</v>
       </c>
       <c r="H42" s="3">
-        <v>10901900</v>
+        <v>12305000</v>
       </c>
       <c r="I42" s="3">
-        <v>12141800</v>
+        <v>11141700</v>
       </c>
       <c r="J42" s="3">
+        <v>12409000</v>
+      </c>
+      <c r="K42" s="3">
         <v>11263700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>10636500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11044100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10301700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9934000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9326300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9118800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8207400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>13673400</v>
+        <v>11064600</v>
       </c>
       <c r="E43" s="3">
-        <v>12606200</v>
+        <v>13974200</v>
       </c>
       <c r="F43" s="3">
-        <v>12205500</v>
+        <v>12883600</v>
       </c>
       <c r="G43" s="3">
-        <v>11720800</v>
+        <v>12474000</v>
       </c>
       <c r="H43" s="3">
-        <v>14603900</v>
+        <v>11978700</v>
       </c>
       <c r="I43" s="3">
-        <v>14288100</v>
+        <v>14925200</v>
       </c>
       <c r="J43" s="3">
+        <v>14602500</v>
+      </c>
+      <c r="K43" s="3">
         <v>12082900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10879500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15438300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>13939800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>11585000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>10443900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13453700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10786100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5521100</v>
+        <v>5480800</v>
       </c>
       <c r="E44" s="3">
-        <v>7086000</v>
+        <v>5642500</v>
       </c>
       <c r="F44" s="3">
-        <v>6305200</v>
+        <v>7241900</v>
       </c>
       <c r="G44" s="3">
-        <v>5938300</v>
+        <v>6444000</v>
       </c>
       <c r="H44" s="3">
-        <v>6145300</v>
+        <v>6069000</v>
       </c>
       <c r="I44" s="3">
-        <v>7405100</v>
+        <v>6280500</v>
       </c>
       <c r="J44" s="3">
+        <v>7568000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6296000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6264200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6813100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8413100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6582200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5684200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6041700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7649600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4833900</v>
+        <v>5518500</v>
       </c>
       <c r="E45" s="3">
-        <v>4940000</v>
+        <v>4940300</v>
       </c>
       <c r="F45" s="3">
-        <v>5107200</v>
+        <v>5048700</v>
       </c>
       <c r="G45" s="3">
-        <v>4629500</v>
+        <v>5219500</v>
       </c>
       <c r="H45" s="3">
-        <v>4715400</v>
+        <v>4731400</v>
       </c>
       <c r="I45" s="3">
-        <v>4369700</v>
+        <v>4819200</v>
       </c>
       <c r="J45" s="3">
+        <v>4465800</v>
+      </c>
+      <c r="K45" s="3">
         <v>4725400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4671400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4960600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4588300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5119600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4664400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5340100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4742600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>51080500</v>
+        <v>53279500</v>
       </c>
       <c r="E46" s="3">
-        <v>49160700</v>
+        <v>52204400</v>
       </c>
       <c r="F46" s="3">
-        <v>47331000</v>
+        <v>50242300</v>
       </c>
       <c r="G46" s="3">
-        <v>47691700</v>
+        <v>48372400</v>
       </c>
       <c r="H46" s="3">
-        <v>49827100</v>
+        <v>48741000</v>
       </c>
       <c r="I46" s="3">
-        <v>52210400</v>
+        <v>50923400</v>
       </c>
       <c r="J46" s="3">
+        <v>53359100</v>
+      </c>
+      <c r="K46" s="3">
         <v>48088900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>46791900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>50269600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46290400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>42117700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>38635300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>40799000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>36044100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>113433700</v>
+        <v>118300100</v>
       </c>
       <c r="E47" s="3">
-        <v>111050800</v>
+        <v>115929500</v>
       </c>
       <c r="F47" s="3">
-        <v>110071700</v>
+        <v>113494100</v>
       </c>
       <c r="G47" s="3">
-        <v>106577100</v>
+        <v>112493500</v>
       </c>
       <c r="H47" s="3">
-        <v>104099700</v>
+        <v>108922000</v>
       </c>
       <c r="I47" s="3">
-        <v>102767800</v>
+        <v>106390100</v>
       </c>
       <c r="J47" s="3">
+        <v>105028900</v>
+      </c>
+      <c r="K47" s="3">
         <v>100663600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>97234800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>95431900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94368800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>93033600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>89691600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>88131100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>85585600</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10887300</v>
+        <v>12088600</v>
       </c>
       <c r="E48" s="3">
-        <v>10509300</v>
+        <v>11126800</v>
       </c>
       <c r="F48" s="3">
-        <v>10124100</v>
+        <v>10740600</v>
       </c>
       <c r="G48" s="3">
-        <v>7063400</v>
+        <v>10346900</v>
       </c>
       <c r="H48" s="3">
-        <v>6888300</v>
+        <v>7218800</v>
       </c>
       <c r="I48" s="3">
-        <v>6743400</v>
+        <v>7039900</v>
       </c>
       <c r="J48" s="3">
+        <v>6891700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6771400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6684800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7156100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6907000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6844300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6725200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6818600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6749300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15597100</v>
+        <v>15701900</v>
       </c>
       <c r="E49" s="3">
-        <v>14897900</v>
+        <v>15940300</v>
       </c>
       <c r="F49" s="3">
-        <v>14943100</v>
+        <v>15225700</v>
       </c>
       <c r="G49" s="3">
-        <v>15330400</v>
+        <v>15271900</v>
       </c>
       <c r="H49" s="3">
-        <v>15333100</v>
+        <v>15667800</v>
       </c>
       <c r="I49" s="3">
-        <v>9759700</v>
+        <v>15670400</v>
       </c>
       <c r="J49" s="3">
+        <v>9974400</v>
+      </c>
+      <c r="K49" s="3">
         <v>9722800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9561200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10155200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10085800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9963300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9816600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9674600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10031500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14776700</v>
+        <v>14665300</v>
       </c>
       <c r="E52" s="3">
-        <v>14054900</v>
+        <v>15101900</v>
       </c>
       <c r="F52" s="3">
-        <v>13942100</v>
+        <v>14364200</v>
       </c>
       <c r="G52" s="3">
-        <v>14060000</v>
+        <v>14248800</v>
       </c>
       <c r="H52" s="3">
-        <v>14034100</v>
+        <v>14369300</v>
       </c>
       <c r="I52" s="3">
-        <v>13277100</v>
+        <v>14342800</v>
       </c>
       <c r="J52" s="3">
+        <v>13569300</v>
+      </c>
+      <c r="K52" s="3">
         <v>12584200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12079700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12550200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12273800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12010600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11780400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11532000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10644200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>205775300</v>
+        <v>214035500</v>
       </c>
       <c r="E54" s="3">
-        <v>199673600</v>
+        <v>210302800</v>
       </c>
       <c r="F54" s="3">
-        <v>196412000</v>
+        <v>204066900</v>
       </c>
       <c r="G54" s="3">
-        <v>190722600</v>
+        <v>200733500</v>
       </c>
       <c r="H54" s="3">
-        <v>190182300</v>
+        <v>194918900</v>
       </c>
       <c r="I54" s="3">
-        <v>184758300</v>
+        <v>194366700</v>
       </c>
       <c r="J54" s="3">
+        <v>188823400</v>
+      </c>
+      <c r="K54" s="3">
         <v>177830800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>172352500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>175562900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>169925800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>163969500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>156649100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156955300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>149054800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,290 +2869,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4220200</v>
+        <v>3537700</v>
       </c>
       <c r="E57" s="3">
-        <v>5548600</v>
+        <v>4313000</v>
       </c>
       <c r="F57" s="3">
-        <v>4938100</v>
+        <v>5670700</v>
       </c>
       <c r="G57" s="3">
-        <v>4473400</v>
+        <v>5046800</v>
       </c>
       <c r="H57" s="3">
-        <v>5431300</v>
+        <v>4571800</v>
       </c>
       <c r="I57" s="3">
-        <v>7102400</v>
+        <v>5550800</v>
       </c>
       <c r="J57" s="3">
+        <v>7258600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5298700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4235700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5950600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7876800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6117000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4788900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5555200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6533600</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8448800</v>
+        <v>7803400</v>
       </c>
       <c r="E58" s="3">
-        <v>8242700</v>
+        <v>8634700</v>
       </c>
       <c r="F58" s="3">
-        <v>8360600</v>
+        <v>8424100</v>
       </c>
       <c r="G58" s="3">
-        <v>7190900</v>
+        <v>8544600</v>
       </c>
       <c r="H58" s="3">
-        <v>7656400</v>
+        <v>7349100</v>
       </c>
       <c r="I58" s="3">
-        <v>7226100</v>
+        <v>7824900</v>
       </c>
       <c r="J58" s="3">
+        <v>7385100</v>
+      </c>
+      <c r="K58" s="3">
         <v>6803500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6523400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7079100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6759300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6674800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4595400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4746500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3653400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45538100</v>
+        <v>46632500</v>
       </c>
       <c r="E59" s="3">
-        <v>43616000</v>
+        <v>46540000</v>
       </c>
       <c r="F59" s="3">
-        <v>43459200</v>
+        <v>44575700</v>
       </c>
       <c r="G59" s="3">
-        <v>43601200</v>
+        <v>44415400</v>
       </c>
       <c r="H59" s="3">
-        <v>44561000</v>
+        <v>44560500</v>
       </c>
       <c r="I59" s="3">
-        <v>42318100</v>
+        <v>45541400</v>
       </c>
       <c r="J59" s="3">
+        <v>43249200</v>
+      </c>
+      <c r="K59" s="3">
         <v>40326500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40050600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>41407800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>39021200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>37272400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>36932600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37240600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>33392600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>58207100</v>
+        <v>57973700</v>
       </c>
       <c r="E60" s="3">
-        <v>57407300</v>
+        <v>59487800</v>
       </c>
       <c r="F60" s="3">
-        <v>56758000</v>
+        <v>58670400</v>
       </c>
       <c r="G60" s="3">
-        <v>55265500</v>
+        <v>58006800</v>
       </c>
       <c r="H60" s="3">
-        <v>57648700</v>
+        <v>56481500</v>
       </c>
       <c r="I60" s="3">
-        <v>56646600</v>
+        <v>58917000</v>
       </c>
       <c r="J60" s="3">
+        <v>57893000</v>
+      </c>
+      <c r="K60" s="3">
         <v>52428700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50809700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>54437500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53657300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50064300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46316800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>47542300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43579500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5742200</v>
+        <v>5898800</v>
       </c>
       <c r="E61" s="3">
-        <v>4813700</v>
+        <v>5868500</v>
       </c>
       <c r="F61" s="3">
-        <v>4800600</v>
+        <v>4919600</v>
       </c>
       <c r="G61" s="3">
-        <v>5166500</v>
+        <v>4906300</v>
       </c>
       <c r="H61" s="3">
-        <v>4990800</v>
+        <v>5280200</v>
       </c>
       <c r="I61" s="3">
-        <v>4637400</v>
+        <v>5100600</v>
       </c>
       <c r="J61" s="3">
+        <v>4739400</v>
+      </c>
+      <c r="K61" s="3">
         <v>5191200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5636000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5371500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5314100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5437900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6044600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6239000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5809000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>97327900</v>
+        <v>105596000</v>
       </c>
       <c r="E62" s="3">
-        <v>95403900</v>
+        <v>99469400</v>
       </c>
       <c r="F62" s="3">
-        <v>93458500</v>
+        <v>97503000</v>
       </c>
       <c r="G62" s="3">
-        <v>89881100</v>
+        <v>95514800</v>
       </c>
       <c r="H62" s="3">
-        <v>87041200</v>
+        <v>91858700</v>
       </c>
       <c r="I62" s="3">
-        <v>86918000</v>
+        <v>88956300</v>
       </c>
       <c r="J62" s="3">
+        <v>88830400</v>
+      </c>
+      <c r="K62" s="3">
         <v>85014300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82853200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82038700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80277400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>79128200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>76369600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75790900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>73598000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>167310000</v>
+        <v>175711400</v>
       </c>
       <c r="E66" s="3">
-        <v>164191500</v>
+        <v>170991200</v>
       </c>
       <c r="F66" s="3">
-        <v>161447300</v>
+        <v>167804000</v>
       </c>
       <c r="G66" s="3">
-        <v>156668000</v>
+        <v>164999500</v>
       </c>
       <c r="H66" s="3">
-        <v>155814800</v>
+        <v>160115100</v>
       </c>
       <c r="I66" s="3">
-        <v>154170100</v>
+        <v>159243000</v>
       </c>
       <c r="J66" s="3">
+        <v>157562200</v>
+      </c>
+      <c r="K66" s="3">
         <v>148525000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>145527500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148082300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>145290100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>140539100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>134498600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>135197800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>128564200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25979700</v>
+        <v>25722700</v>
       </c>
       <c r="E72" s="3">
-        <v>23893200</v>
+        <v>26551300</v>
       </c>
       <c r="F72" s="3">
-        <v>22409000</v>
+        <v>24418900</v>
       </c>
       <c r="G72" s="3">
-        <v>21094100</v>
+        <v>22902000</v>
       </c>
       <c r="H72" s="3">
-        <v>20522800</v>
+        <v>21558200</v>
       </c>
       <c r="I72" s="3">
-        <v>16623600</v>
+        <v>20974400</v>
       </c>
       <c r="J72" s="3">
+        <v>16989300</v>
+      </c>
+      <c r="K72" s="3">
         <v>15224000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13021100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13344800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10669900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9629800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8731300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8598100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8424000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38465300</v>
+        <v>38324100</v>
       </c>
       <c r="E76" s="3">
-        <v>35482200</v>
+        <v>39311600</v>
       </c>
       <c r="F76" s="3">
-        <v>34964700</v>
+        <v>36262900</v>
       </c>
       <c r="G76" s="3">
-        <v>34054600</v>
+        <v>35734100</v>
       </c>
       <c r="H76" s="3">
-        <v>34367500</v>
+        <v>34803800</v>
       </c>
       <c r="I76" s="3">
-        <v>30588200</v>
+        <v>35123700</v>
       </c>
       <c r="J76" s="3">
+        <v>31261200</v>
+      </c>
+      <c r="K76" s="3">
         <v>29305700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26825000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>27480600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>24635700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23430400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22150600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21757500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20490600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2086500</v>
+        <v>117500</v>
       </c>
       <c r="E81" s="3">
-        <v>1707900</v>
+        <v>2132400</v>
       </c>
       <c r="F81" s="3">
-        <v>1382800</v>
+        <v>1745500</v>
       </c>
       <c r="G81" s="3">
-        <v>798700</v>
+        <v>1413200</v>
       </c>
       <c r="H81" s="3">
-        <v>3899300</v>
+        <v>816200</v>
       </c>
       <c r="I81" s="3">
-        <v>1572600</v>
+        <v>3985100</v>
       </c>
       <c r="J81" s="3">
+        <v>1607200</v>
+      </c>
+      <c r="K81" s="3">
         <v>2058400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-152100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2674900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1182900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>731100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>245300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>174100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>831300</v>
+        <v>1256500</v>
       </c>
       <c r="E83" s="3">
-        <v>877400</v>
+        <v>849600</v>
       </c>
       <c r="F83" s="3">
-        <v>849100</v>
+        <v>896700</v>
       </c>
       <c r="G83" s="3">
-        <v>869200</v>
+        <v>867800</v>
       </c>
       <c r="H83" s="3">
-        <v>968800</v>
+        <v>888300</v>
       </c>
       <c r="I83" s="3">
-        <v>777900</v>
+        <v>990100</v>
       </c>
       <c r="J83" s="3">
+        <v>795100</v>
+      </c>
+      <c r="K83" s="3">
         <v>783900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>933400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>797600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>783800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>752700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>598700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>696200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>776200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3850000</v>
+        <v>4792400</v>
       </c>
       <c r="E89" s="3">
-        <v>3733700</v>
+        <v>3934700</v>
       </c>
       <c r="F89" s="3">
-        <v>-30500</v>
+        <v>3815900</v>
       </c>
       <c r="G89" s="3">
-        <v>3249200</v>
+        <v>-31200</v>
       </c>
       <c r="H89" s="3">
-        <v>4470300</v>
+        <v>3320700</v>
       </c>
       <c r="I89" s="3">
-        <v>2855300</v>
+        <v>4568700</v>
       </c>
       <c r="J89" s="3">
+        <v>2918100</v>
+      </c>
+      <c r="K89" s="3">
         <v>833200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5375600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3562000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1945400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>462000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4399600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2055800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>579200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1227300</v>
+        <v>-1161000</v>
       </c>
       <c r="E91" s="3">
-        <v>-922800</v>
+        <v>-1254300</v>
       </c>
       <c r="F91" s="3">
-        <v>-711400</v>
+        <v>-943100</v>
       </c>
       <c r="G91" s="3">
-        <v>-751200</v>
+        <v>-727100</v>
       </c>
       <c r="H91" s="3">
-        <v>-683500</v>
+        <v>-767700</v>
       </c>
       <c r="I91" s="3">
-        <v>-742100</v>
+        <v>-698500</v>
       </c>
       <c r="J91" s="3">
+        <v>-758400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-665200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-661800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-538100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-665300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-512200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-648000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-489200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-880800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3589300</v>
+        <v>-3030400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2800300</v>
+        <v>-3668300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2937500</v>
+        <v>-2861900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2476500</v>
+        <v>-3002100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4608600</v>
+        <v>-2531000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3005500</v>
+        <v>-4710000</v>
       </c>
       <c r="J94" s="3">
+        <v>-3071600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1794000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2307800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1402300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1974600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2416700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2784100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3977900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,55 +4604,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-223900</v>
+        <v>400</v>
       </c>
       <c r="E96" s="3">
+        <v>-228800</v>
+      </c>
+      <c r="F96" s="3">
         <v>400</v>
       </c>
-      <c r="F96" s="3">
-        <v>-227600</v>
-      </c>
       <c r="G96" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="H96" s="3">
         <v>100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-173500</v>
-      </c>
       <c r="I96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="J96" s="3">
         <v>200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-172800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-136500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-114700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-112400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1056100</v>
+        <v>-738000</v>
       </c>
       <c r="E100" s="3">
-        <v>-524900</v>
+        <v>1079400</v>
       </c>
       <c r="F100" s="3">
-        <v>787700</v>
+        <v>-536500</v>
       </c>
       <c r="G100" s="3">
-        <v>-897300</v>
+        <v>805000</v>
       </c>
       <c r="H100" s="3">
-        <v>-217300</v>
+        <v>-917000</v>
       </c>
       <c r="I100" s="3">
-        <v>198400</v>
+        <v>-222100</v>
       </c>
       <c r="J100" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-169300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>774400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>125200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1497700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-137900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2524300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2499700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>101300</v>
+        <v>-62800</v>
       </c>
       <c r="E101" s="3">
-        <v>-23400</v>
+        <v>103500</v>
       </c>
       <c r="F101" s="3">
-        <v>-213200</v>
+        <v>-23900</v>
       </c>
       <c r="G101" s="3">
-        <v>27000</v>
+        <v>-217900</v>
       </c>
       <c r="H101" s="3">
-        <v>-189500</v>
+        <v>27600</v>
       </c>
       <c r="I101" s="3">
-        <v>236600</v>
+        <v>-193700</v>
       </c>
       <c r="J101" s="3">
+        <v>241800</v>
+      </c>
+      <c r="K101" s="3">
         <v>402800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-571500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>54700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-173300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>390400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-40300</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1418100</v>
+        <v>961300</v>
       </c>
       <c r="E102" s="3">
-        <v>385100</v>
+        <v>1449300</v>
       </c>
       <c r="F102" s="3">
-        <v>-2393500</v>
+        <v>393500</v>
       </c>
       <c r="G102" s="3">
-        <v>-97700</v>
+        <v>-2446100</v>
       </c>
       <c r="H102" s="3">
-        <v>-545100</v>
+        <v>-99800</v>
       </c>
       <c r="I102" s="3">
-        <v>284800</v>
+        <v>-557100</v>
       </c>
       <c r="J102" s="3">
+        <v>291000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-758900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2326900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2966000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>150700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>217200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1671700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2186400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-939300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16245800</v>
+        <v>18586600</v>
       </c>
       <c r="E8" s="3">
-        <v>22882800</v>
+        <v>16508100</v>
       </c>
       <c r="F8" s="3">
-        <v>19715800</v>
+        <v>23252200</v>
       </c>
       <c r="G8" s="3">
-        <v>17890000</v>
+        <v>20034100</v>
       </c>
       <c r="H8" s="3">
-        <v>19764500</v>
+        <v>18178800</v>
       </c>
       <c r="I8" s="3">
-        <v>22312800</v>
+        <v>20083600</v>
       </c>
       <c r="J8" s="3">
+        <v>22673000</v>
+      </c>
+      <c r="K8" s="3">
         <v>20277800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17758400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17637200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24157700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>18645300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16797300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16885000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>21265800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14981000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12063900</v>
+        <v>13691100</v>
       </c>
       <c r="E9" s="3">
-        <v>16571200</v>
+        <v>12258700</v>
       </c>
       <c r="F9" s="3">
-        <v>13871400</v>
+        <v>16838800</v>
       </c>
       <c r="G9" s="3">
-        <v>12537100</v>
+        <v>14095400</v>
       </c>
       <c r="H9" s="3">
-        <v>15034400</v>
+        <v>12739600</v>
       </c>
       <c r="I9" s="3">
-        <v>15840700</v>
+        <v>15277200</v>
       </c>
       <c r="J9" s="3">
+        <v>16096400</v>
+      </c>
+      <c r="K9" s="3">
         <v>14260900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12768200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13214300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17387200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13333600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>12388000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12504000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>15804400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>11304200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4181900</v>
+        <v>4895500</v>
       </c>
       <c r="E10" s="3">
-        <v>6311600</v>
+        <v>4249400</v>
       </c>
       <c r="F10" s="3">
-        <v>5844300</v>
+        <v>6413500</v>
       </c>
       <c r="G10" s="3">
-        <v>5352800</v>
+        <v>5938700</v>
       </c>
       <c r="H10" s="3">
-        <v>4730000</v>
+        <v>5439300</v>
       </c>
       <c r="I10" s="3">
-        <v>6472100</v>
+        <v>4806400</v>
       </c>
       <c r="J10" s="3">
+        <v>6576600</v>
+      </c>
+      <c r="K10" s="3">
         <v>6017000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4990200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4423000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6770500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5311700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4409400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4381000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5461500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3676700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1024,8 +1043,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1042,14 +1061,17 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>994100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15916500</v>
+        <v>16430500</v>
       </c>
       <c r="E17" s="3">
-        <v>20094500</v>
+        <v>16173500</v>
       </c>
       <c r="F17" s="3">
-        <v>17124300</v>
+        <v>20419000</v>
       </c>
       <c r="G17" s="3">
-        <v>15744700</v>
+        <v>17400800</v>
       </c>
       <c r="H17" s="3">
-        <v>18995900</v>
+        <v>15998900</v>
       </c>
       <c r="I17" s="3">
-        <v>18810500</v>
+        <v>19302600</v>
       </c>
       <c r="J17" s="3">
+        <v>19114300</v>
+      </c>
+      <c r="K17" s="3">
         <v>18052800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15985800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>17436700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20986200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>16799100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15372500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16047700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>20446500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>14575200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>329300</v>
+        <v>2156000</v>
       </c>
       <c r="E18" s="3">
-        <v>2788200</v>
+        <v>334600</v>
       </c>
       <c r="F18" s="3">
-        <v>2591500</v>
+        <v>2833200</v>
       </c>
       <c r="G18" s="3">
-        <v>2145300</v>
+        <v>2633300</v>
       </c>
       <c r="H18" s="3">
-        <v>768600</v>
+        <v>2179900</v>
       </c>
       <c r="I18" s="3">
-        <v>3502200</v>
+        <v>781000</v>
       </c>
       <c r="J18" s="3">
+        <v>3558800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2225100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1772600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>200500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3171600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1846200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1424800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>837200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>819300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>405800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-345000</v>
+        <v>881000</v>
       </c>
       <c r="E20" s="3">
-        <v>105100</v>
+        <v>-350500</v>
       </c>
       <c r="F20" s="3">
-        <v>-130800</v>
+        <v>106800</v>
       </c>
       <c r="G20" s="3">
-        <v>46200</v>
+        <v>-132900</v>
       </c>
       <c r="H20" s="3">
-        <v>294200</v>
+        <v>46900</v>
       </c>
       <c r="I20" s="3">
-        <v>-306100</v>
+        <v>298900</v>
       </c>
       <c r="J20" s="3">
+        <v>-311000</v>
+      </c>
+      <c r="K20" s="3">
         <v>100000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1094400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-98800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-37800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-26500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-38000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-198700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1240800</v>
+        <v>3887600</v>
       </c>
       <c r="E21" s="3">
-        <v>3743000</v>
+        <v>1260800</v>
       </c>
       <c r="F21" s="3">
-        <v>3357500</v>
+        <v>3803400</v>
       </c>
       <c r="G21" s="3">
-        <v>3059300</v>
+        <v>3411700</v>
       </c>
       <c r="H21" s="3">
-        <v>1951100</v>
+        <v>3108700</v>
       </c>
       <c r="I21" s="3">
-        <v>4186300</v>
+        <v>1982600</v>
       </c>
       <c r="J21" s="3">
+        <v>4253800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3120100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3651000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1035200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3931300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2603500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2139500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1401400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1316900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1174200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>21300</v>
+        <v>17000</v>
       </c>
       <c r="E22" s="3">
-        <v>10500</v>
+        <v>21700</v>
       </c>
       <c r="F22" s="3">
-        <v>25900</v>
+        <v>10700</v>
       </c>
       <c r="G22" s="3">
-        <v>45300</v>
+        <v>26300</v>
       </c>
       <c r="H22" s="3">
-        <v>16400</v>
+        <v>46100</v>
       </c>
       <c r="I22" s="3">
-        <v>32600</v>
+        <v>16600</v>
       </c>
       <c r="J22" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K22" s="3">
         <v>36000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>33300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37000</v>
+        <v>3020000</v>
       </c>
       <c r="E23" s="3">
-        <v>2882900</v>
+        <v>-37600</v>
       </c>
       <c r="F23" s="3">
-        <v>2434900</v>
+        <v>2929400</v>
       </c>
       <c r="G23" s="3">
-        <v>2146200</v>
+        <v>2474200</v>
       </c>
       <c r="H23" s="3">
-        <v>1046400</v>
+        <v>2180800</v>
       </c>
       <c r="I23" s="3">
-        <v>3163500</v>
+        <v>1063300</v>
       </c>
       <c r="J23" s="3">
+        <v>3214600</v>
+      </c>
+      <c r="K23" s="3">
         <v>2289000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2836900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3101800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1795000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1346000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>779300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>587400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>359400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-183300</v>
+        <v>688000</v>
       </c>
       <c r="E24" s="3">
-        <v>650100</v>
+        <v>-186200</v>
       </c>
       <c r="F24" s="3">
-        <v>575300</v>
+        <v>660600</v>
       </c>
       <c r="G24" s="3">
-        <v>604000</v>
+        <v>584600</v>
       </c>
       <c r="H24" s="3">
-        <v>105300</v>
+        <v>613700</v>
       </c>
       <c r="I24" s="3">
-        <v>-935700</v>
+        <v>107000</v>
       </c>
       <c r="J24" s="3">
+        <v>-950800</v>
+      </c>
+      <c r="K24" s="3">
         <v>550600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>683800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>120100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>255200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>504000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>492600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>382500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>327800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>146300</v>
+        <v>2332100</v>
       </c>
       <c r="E26" s="3">
-        <v>2232800</v>
+        <v>148600</v>
       </c>
       <c r="F26" s="3">
-        <v>1859600</v>
+        <v>2268800</v>
       </c>
       <c r="G26" s="3">
-        <v>1542200</v>
+        <v>1889600</v>
       </c>
       <c r="H26" s="3">
-        <v>941100</v>
+        <v>1567100</v>
       </c>
       <c r="I26" s="3">
-        <v>4099200</v>
+        <v>956300</v>
       </c>
       <c r="J26" s="3">
+        <v>4165400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1738400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2153100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-43600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2846600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1291000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>853400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>396700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>259600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117500</v>
+        <v>2201900</v>
       </c>
       <c r="E27" s="3">
-        <v>2132400</v>
+        <v>119400</v>
       </c>
       <c r="F27" s="3">
-        <v>1745500</v>
+        <v>2166800</v>
       </c>
       <c r="G27" s="3">
-        <v>1413200</v>
+        <v>1773700</v>
       </c>
       <c r="H27" s="3">
-        <v>816200</v>
+        <v>1436000</v>
       </c>
       <c r="I27" s="3">
-        <v>3985100</v>
+        <v>829400</v>
       </c>
       <c r="J27" s="3">
+        <v>4049400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1607200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2058400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-152100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2674900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1182900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>731100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>245300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>174100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>345000</v>
+        <v>-881000</v>
       </c>
       <c r="E32" s="3">
-        <v>-105100</v>
+        <v>350500</v>
       </c>
       <c r="F32" s="3">
-        <v>130800</v>
+        <v>-106800</v>
       </c>
       <c r="G32" s="3">
-        <v>-46200</v>
+        <v>132900</v>
       </c>
       <c r="H32" s="3">
-        <v>-294200</v>
+        <v>-46900</v>
       </c>
       <c r="I32" s="3">
-        <v>306100</v>
+        <v>-298900</v>
       </c>
       <c r="J32" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1094400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>98800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>37800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>26500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>38000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>198700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117500</v>
+        <v>2201900</v>
       </c>
       <c r="E33" s="3">
-        <v>2132400</v>
+        <v>119400</v>
       </c>
       <c r="F33" s="3">
-        <v>1745500</v>
+        <v>2166800</v>
       </c>
       <c r="G33" s="3">
-        <v>1413200</v>
+        <v>1773700</v>
       </c>
       <c r="H33" s="3">
-        <v>816200</v>
+        <v>1436000</v>
       </c>
       <c r="I33" s="3">
-        <v>3985100</v>
+        <v>829400</v>
       </c>
       <c r="J33" s="3">
+        <v>4049400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1607200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2058400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-152100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2674900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1182900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>731100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>245300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>174100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117500</v>
+        <v>2201900</v>
       </c>
       <c r="E35" s="3">
-        <v>2132400</v>
+        <v>119400</v>
       </c>
       <c r="F35" s="3">
-        <v>1745500</v>
+        <v>2166800</v>
       </c>
       <c r="G35" s="3">
-        <v>1413200</v>
+        <v>1773700</v>
       </c>
       <c r="H35" s="3">
-        <v>816200</v>
+        <v>1436000</v>
       </c>
       <c r="I35" s="3">
-        <v>3985100</v>
+        <v>829400</v>
       </c>
       <c r="J35" s="3">
+        <v>4049400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1607200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2058400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-152100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2674900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1182900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>731100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>245300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>174100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,458 +2215,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14049800</v>
+        <v>13674900</v>
       </c>
       <c r="E41" s="3">
-        <v>13088500</v>
+        <v>14276700</v>
       </c>
       <c r="F41" s="3">
-        <v>11639200</v>
+        <v>13299800</v>
       </c>
       <c r="G41" s="3">
-        <v>11245600</v>
+        <v>11827100</v>
       </c>
       <c r="H41" s="3">
-        <v>13657000</v>
+        <v>11427200</v>
       </c>
       <c r="I41" s="3">
-        <v>13756800</v>
+        <v>13877500</v>
       </c>
       <c r="J41" s="3">
+        <v>13978900</v>
+      </c>
+      <c r="K41" s="3">
         <v>14313800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13720900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14340400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12013500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9047500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8896900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8516500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6844800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4658400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17165800</v>
+        <v>19880400</v>
       </c>
       <c r="E42" s="3">
-        <v>14558900</v>
+        <v>17443000</v>
       </c>
       <c r="F42" s="3">
-        <v>13429000</v>
+        <v>14794000</v>
       </c>
       <c r="G42" s="3">
-        <v>12989200</v>
+        <v>13645800</v>
       </c>
       <c r="H42" s="3">
-        <v>12305000</v>
+        <v>13199000</v>
       </c>
       <c r="I42" s="3">
-        <v>11141700</v>
+        <v>12503600</v>
       </c>
       <c r="J42" s="3">
+        <v>11321600</v>
+      </c>
+      <c r="K42" s="3">
         <v>12409000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11263700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10636500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11044100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10301700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9934000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9326300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9118800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8207400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>11064600</v>
+        <v>10940400</v>
       </c>
       <c r="E43" s="3">
-        <v>13974200</v>
+        <v>11243300</v>
       </c>
       <c r="F43" s="3">
-        <v>12883600</v>
+        <v>14199900</v>
       </c>
       <c r="G43" s="3">
-        <v>12474000</v>
+        <v>13091600</v>
       </c>
       <c r="H43" s="3">
-        <v>11978700</v>
+        <v>12675400</v>
       </c>
       <c r="I43" s="3">
-        <v>14925200</v>
+        <v>12172100</v>
       </c>
       <c r="J43" s="3">
+        <v>15166200</v>
+      </c>
+      <c r="K43" s="3">
         <v>14602500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>12082900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10879500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>15438300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>13939800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>11585000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>10443900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>13453700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10786100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5480800</v>
+        <v>5558200</v>
       </c>
       <c r="E44" s="3">
-        <v>5642500</v>
+        <v>5569300</v>
       </c>
       <c r="F44" s="3">
-        <v>7241900</v>
+        <v>5733600</v>
       </c>
       <c r="G44" s="3">
-        <v>6444000</v>
+        <v>7358800</v>
       </c>
       <c r="H44" s="3">
-        <v>6069000</v>
+        <v>6548000</v>
       </c>
       <c r="I44" s="3">
-        <v>6280500</v>
+        <v>6166900</v>
       </c>
       <c r="J44" s="3">
+        <v>6381900</v>
+      </c>
+      <c r="K44" s="3">
         <v>7568000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6296000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6264200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6813100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>8413100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6582200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5684200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6041700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7649600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5518500</v>
+        <v>5742100</v>
       </c>
       <c r="E45" s="3">
-        <v>4940300</v>
+        <v>5607600</v>
       </c>
       <c r="F45" s="3">
-        <v>5048700</v>
+        <v>5020000</v>
       </c>
       <c r="G45" s="3">
-        <v>5219500</v>
+        <v>5130300</v>
       </c>
       <c r="H45" s="3">
-        <v>4731400</v>
+        <v>5303800</v>
       </c>
       <c r="I45" s="3">
-        <v>4819200</v>
+        <v>4807800</v>
       </c>
       <c r="J45" s="3">
+        <v>4897000</v>
+      </c>
+      <c r="K45" s="3">
         <v>4465800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4725400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4671400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4960600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4588300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5119600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4664400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5340100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4742600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>53279500</v>
+        <v>55796000</v>
       </c>
       <c r="E46" s="3">
-        <v>52204400</v>
+        <v>54139800</v>
       </c>
       <c r="F46" s="3">
-        <v>50242300</v>
+        <v>53047300</v>
       </c>
       <c r="G46" s="3">
-        <v>48372400</v>
+        <v>51053600</v>
       </c>
       <c r="H46" s="3">
-        <v>48741000</v>
+        <v>49153400</v>
       </c>
       <c r="I46" s="3">
-        <v>50923400</v>
+        <v>49528000</v>
       </c>
       <c r="J46" s="3">
+        <v>51745700</v>
+      </c>
+      <c r="K46" s="3">
         <v>53359100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>48088900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>46791900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50269600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46290400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>42117700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>38635300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>40799000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>36044100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>118300100</v>
+        <v>124051600</v>
       </c>
       <c r="E47" s="3">
-        <v>115929500</v>
+        <v>120210200</v>
       </c>
       <c r="F47" s="3">
-        <v>113494100</v>
+        <v>117801300</v>
       </c>
       <c r="G47" s="3">
-        <v>112493500</v>
+        <v>115326700</v>
       </c>
       <c r="H47" s="3">
-        <v>108922000</v>
+        <v>114309900</v>
       </c>
       <c r="I47" s="3">
-        <v>106390100</v>
+        <v>110680700</v>
       </c>
       <c r="J47" s="3">
+        <v>108107900</v>
+      </c>
+      <c r="K47" s="3">
         <v>105028900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100663600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>97234800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95431900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94368800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>93033600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>89691600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>88131100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>85585600</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12088600</v>
+        <v>12361900</v>
       </c>
       <c r="E48" s="3">
-        <v>11126800</v>
+        <v>12283800</v>
       </c>
       <c r="F48" s="3">
-        <v>10740600</v>
+        <v>11306500</v>
       </c>
       <c r="G48" s="3">
-        <v>10346900</v>
+        <v>10914000</v>
       </c>
       <c r="H48" s="3">
-        <v>7218800</v>
+        <v>10513900</v>
       </c>
       <c r="I48" s="3">
-        <v>7039900</v>
+        <v>7335400</v>
       </c>
       <c r="J48" s="3">
+        <v>7153500</v>
+      </c>
+      <c r="K48" s="3">
         <v>6891700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6771400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6684800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7156100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6907000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6844300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6725200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6818600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6749300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15701900</v>
+        <v>15916100</v>
       </c>
       <c r="E49" s="3">
-        <v>15940300</v>
+        <v>15955500</v>
       </c>
       <c r="F49" s="3">
-        <v>15225700</v>
+        <v>16197700</v>
       </c>
       <c r="G49" s="3">
-        <v>15271900</v>
+        <v>15471500</v>
       </c>
       <c r="H49" s="3">
-        <v>15667800</v>
+        <v>15518500</v>
       </c>
       <c r="I49" s="3">
-        <v>15670400</v>
+        <v>15920700</v>
       </c>
       <c r="J49" s="3">
+        <v>15923500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9974400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9722800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9561200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10155200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10085800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9963300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9816600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9674600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10031500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14665300</v>
+        <v>14907200</v>
       </c>
       <c r="E52" s="3">
-        <v>15101900</v>
+        <v>14902100</v>
       </c>
       <c r="F52" s="3">
-        <v>14364200</v>
+        <v>15345700</v>
       </c>
       <c r="G52" s="3">
-        <v>14248800</v>
+        <v>14596100</v>
       </c>
       <c r="H52" s="3">
-        <v>14369300</v>
+        <v>14478900</v>
       </c>
       <c r="I52" s="3">
-        <v>14342800</v>
+        <v>14601300</v>
       </c>
       <c r="J52" s="3">
+        <v>14574400</v>
+      </c>
+      <c r="K52" s="3">
         <v>13569300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12584200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12079700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12550200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12273800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12010600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11780400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11532000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10644200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>214035500</v>
+        <v>223032800</v>
       </c>
       <c r="E54" s="3">
-        <v>210302800</v>
+        <v>217491400</v>
       </c>
       <c r="F54" s="3">
-        <v>204066900</v>
+        <v>213698400</v>
       </c>
       <c r="G54" s="3">
-        <v>200733500</v>
+        <v>207361800</v>
       </c>
       <c r="H54" s="3">
-        <v>194918900</v>
+        <v>203974600</v>
       </c>
       <c r="I54" s="3">
-        <v>194366700</v>
+        <v>198066200</v>
       </c>
       <c r="J54" s="3">
+        <v>197505000</v>
+      </c>
+      <c r="K54" s="3">
         <v>188823400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>177830800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>172352500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>175562900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>169925800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>163969500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>156649100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>156955300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>149054800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,308 +2999,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3537700</v>
+        <v>3693100</v>
       </c>
       <c r="E57" s="3">
-        <v>4313000</v>
+        <v>3594800</v>
       </c>
       <c r="F57" s="3">
-        <v>5670700</v>
+        <v>4382700</v>
       </c>
       <c r="G57" s="3">
-        <v>5046800</v>
+        <v>5762200</v>
       </c>
       <c r="H57" s="3">
-        <v>4571800</v>
+        <v>5128300</v>
       </c>
       <c r="I57" s="3">
-        <v>5550800</v>
+        <v>4645700</v>
       </c>
       <c r="J57" s="3">
+        <v>5640400</v>
+      </c>
+      <c r="K57" s="3">
         <v>7258600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5298700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4235700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5950600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7876800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6117000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4788900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5555200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6533600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7803400</v>
+        <v>9496000</v>
       </c>
       <c r="E58" s="3">
-        <v>8634700</v>
+        <v>7929400</v>
       </c>
       <c r="F58" s="3">
-        <v>8424100</v>
+        <v>8774200</v>
       </c>
       <c r="G58" s="3">
-        <v>8544600</v>
+        <v>8560100</v>
       </c>
       <c r="H58" s="3">
-        <v>7349100</v>
+        <v>8682500</v>
       </c>
       <c r="I58" s="3">
-        <v>7824900</v>
+        <v>7467800</v>
       </c>
       <c r="J58" s="3">
+        <v>7951200</v>
+      </c>
+      <c r="K58" s="3">
         <v>7385100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6803500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6523400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7079100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6759300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6674800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4595400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4746500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3653400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46632500</v>
+        <v>46567000</v>
       </c>
       <c r="E59" s="3">
-        <v>46540000</v>
+        <v>47385500</v>
       </c>
       <c r="F59" s="3">
-        <v>44575700</v>
+        <v>47291500</v>
       </c>
       <c r="G59" s="3">
-        <v>44415400</v>
+        <v>45295400</v>
       </c>
       <c r="H59" s="3">
-        <v>44560500</v>
+        <v>45132600</v>
       </c>
       <c r="I59" s="3">
-        <v>45541400</v>
+        <v>45280000</v>
       </c>
       <c r="J59" s="3">
+        <v>46276800</v>
+      </c>
+      <c r="K59" s="3">
         <v>43249200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>40326500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40050600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41407800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>39021200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>37272400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>36932600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37240600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>33392600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57973700</v>
+        <v>59756100</v>
       </c>
       <c r="E60" s="3">
-        <v>59487800</v>
+        <v>58909800</v>
       </c>
       <c r="F60" s="3">
-        <v>58670400</v>
+        <v>60448300</v>
       </c>
       <c r="G60" s="3">
-        <v>58006800</v>
+        <v>59617700</v>
       </c>
       <c r="H60" s="3">
-        <v>56481500</v>
+        <v>58943400</v>
       </c>
       <c r="I60" s="3">
-        <v>58917000</v>
+        <v>57393500</v>
       </c>
       <c r="J60" s="3">
+        <v>59868300</v>
+      </c>
+      <c r="K60" s="3">
         <v>57893000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>52428700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>50809700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>54437500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53657300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>50064300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46316800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>47542300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43579500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5898800</v>
+        <v>6175100</v>
       </c>
       <c r="E61" s="3">
-        <v>5868500</v>
+        <v>5994100</v>
       </c>
       <c r="F61" s="3">
-        <v>4919600</v>
+        <v>5963300</v>
       </c>
       <c r="G61" s="3">
-        <v>4906300</v>
+        <v>4999100</v>
       </c>
       <c r="H61" s="3">
-        <v>5280200</v>
+        <v>4985500</v>
       </c>
       <c r="I61" s="3">
-        <v>5100600</v>
+        <v>5365400</v>
       </c>
       <c r="J61" s="3">
+        <v>5183000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4739400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5191200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5636000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5371500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5314100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5437900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6044600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6239000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5809000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>105596000</v>
+        <v>109884400</v>
       </c>
       <c r="E62" s="3">
-        <v>99469400</v>
+        <v>107301000</v>
       </c>
       <c r="F62" s="3">
-        <v>97503000</v>
+        <v>101075400</v>
       </c>
       <c r="G62" s="3">
-        <v>95514800</v>
+        <v>99077300</v>
       </c>
       <c r="H62" s="3">
-        <v>91858700</v>
+        <v>97057000</v>
       </c>
       <c r="I62" s="3">
-        <v>88956300</v>
+        <v>93341900</v>
       </c>
       <c r="J62" s="3">
+        <v>90392600</v>
+      </c>
+      <c r="K62" s="3">
         <v>88830400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>85014300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82853200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82038700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80277400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>79128200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>76369600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>75790900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>73598000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>175711400</v>
+        <v>182149600</v>
       </c>
       <c r="E66" s="3">
-        <v>170991200</v>
+        <v>178548500</v>
       </c>
       <c r="F66" s="3">
-        <v>167804000</v>
+        <v>173752100</v>
       </c>
       <c r="G66" s="3">
-        <v>164999500</v>
+        <v>170513500</v>
       </c>
       <c r="H66" s="3">
-        <v>160115100</v>
+        <v>167663600</v>
       </c>
       <c r="I66" s="3">
-        <v>159243000</v>
+        <v>162700400</v>
       </c>
       <c r="J66" s="3">
+        <v>161814200</v>
+      </c>
+      <c r="K66" s="3">
         <v>157562200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>148525000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>145527500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>148082300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>145290100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>140539100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>134498600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>135197800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>128564200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>25722700</v>
+        <v>28297100</v>
       </c>
       <c r="E72" s="3">
-        <v>26551300</v>
+        <v>26138000</v>
       </c>
       <c r="F72" s="3">
-        <v>24418900</v>
+        <v>26980000</v>
       </c>
       <c r="G72" s="3">
-        <v>22902000</v>
+        <v>24813200</v>
       </c>
       <c r="H72" s="3">
-        <v>21558200</v>
+        <v>23271800</v>
       </c>
       <c r="I72" s="3">
-        <v>20974400</v>
+        <v>21906300</v>
       </c>
       <c r="J72" s="3">
+        <v>21313100</v>
+      </c>
+      <c r="K72" s="3">
         <v>16989300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15224000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>13021100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13344800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10669900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9629800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8731300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8598100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8424000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38324100</v>
+        <v>40883200</v>
       </c>
       <c r="E76" s="3">
-        <v>39311600</v>
+        <v>38942900</v>
       </c>
       <c r="F76" s="3">
-        <v>36262900</v>
+        <v>39946300</v>
       </c>
       <c r="G76" s="3">
-        <v>35734100</v>
+        <v>36848400</v>
       </c>
       <c r="H76" s="3">
-        <v>34803800</v>
+        <v>36311000</v>
       </c>
       <c r="I76" s="3">
-        <v>35123700</v>
+        <v>35365800</v>
       </c>
       <c r="J76" s="3">
+        <v>35690800</v>
+      </c>
+      <c r="K76" s="3">
         <v>31261200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29305700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>26825000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>27480600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24635700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23430400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22150600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21757500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20490600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117500</v>
+        <v>2201900</v>
       </c>
       <c r="E81" s="3">
-        <v>2132400</v>
+        <v>119400</v>
       </c>
       <c r="F81" s="3">
-        <v>1745500</v>
+        <v>2166800</v>
       </c>
       <c r="G81" s="3">
-        <v>1413200</v>
+        <v>1773700</v>
       </c>
       <c r="H81" s="3">
-        <v>816200</v>
+        <v>1436000</v>
       </c>
       <c r="I81" s="3">
-        <v>3985100</v>
+        <v>829400</v>
       </c>
       <c r="J81" s="3">
+        <v>4049400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1607200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2058400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-152100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2674900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1182900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>731100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>245300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>174100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1256500</v>
+        <v>850600</v>
       </c>
       <c r="E83" s="3">
-        <v>849600</v>
+        <v>1276800</v>
       </c>
       <c r="F83" s="3">
-        <v>896700</v>
+        <v>863300</v>
       </c>
       <c r="G83" s="3">
-        <v>867800</v>
+        <v>911200</v>
       </c>
       <c r="H83" s="3">
-        <v>888300</v>
+        <v>881800</v>
       </c>
       <c r="I83" s="3">
-        <v>990100</v>
+        <v>902700</v>
       </c>
       <c r="J83" s="3">
+        <v>1006100</v>
+      </c>
+      <c r="K83" s="3">
         <v>795100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>783900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>933400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>797600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>783800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>752700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>598700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>696200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>776200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4792400</v>
+        <v>1178700</v>
       </c>
       <c r="E89" s="3">
-        <v>3934700</v>
+        <v>4869800</v>
       </c>
       <c r="F89" s="3">
-        <v>3815900</v>
+        <v>3998300</v>
       </c>
       <c r="G89" s="3">
-        <v>-31200</v>
+        <v>3877500</v>
       </c>
       <c r="H89" s="3">
-        <v>3320700</v>
+        <v>-31700</v>
       </c>
       <c r="I89" s="3">
-        <v>4568700</v>
+        <v>3374300</v>
       </c>
       <c r="J89" s="3">
+        <v>4642500</v>
+      </c>
+      <c r="K89" s="3">
         <v>2918100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>833200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5375600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3562000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1945400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>462000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4399600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2055800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>579200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1161000</v>
+        <v>-1254300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1254300</v>
+        <v>-1179700</v>
       </c>
       <c r="F91" s="3">
-        <v>-943100</v>
+        <v>-1274500</v>
       </c>
       <c r="G91" s="3">
-        <v>-727100</v>
+        <v>-958300</v>
       </c>
       <c r="H91" s="3">
-        <v>-767700</v>
+        <v>-738800</v>
       </c>
       <c r="I91" s="3">
-        <v>-698500</v>
+        <v>-780100</v>
       </c>
       <c r="J91" s="3">
+        <v>-709800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-758400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-665200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-661800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-538100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-665300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-512200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-648000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-489200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-880800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3030400</v>
+        <v>-4486600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3668300</v>
+        <v>-3079300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2861900</v>
+        <v>-3727500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3002100</v>
+        <v>-2908100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2531000</v>
+        <v>-3050600</v>
       </c>
       <c r="I94" s="3">
-        <v>-4710000</v>
+        <v>-2571900</v>
       </c>
       <c r="J94" s="3">
+        <v>-4786100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3071600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1794000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2307800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1402300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1974600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2416700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2784100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3977900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-284100</v>
+      </c>
+      <c r="E96" s="3">
         <v>400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-228800</v>
-      </c>
       <c r="F96" s="3">
+        <v>-232500</v>
+      </c>
+      <c r="G96" s="3">
         <v>400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-232600</v>
-      </c>
       <c r="H96" s="3">
+        <v>-236300</v>
+      </c>
+      <c r="I96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>-177300</v>
-      </c>
       <c r="J96" s="3">
+        <v>-180200</v>
+      </c>
+      <c r="K96" s="3">
         <v>200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-172800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-136500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-114700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-112400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-738000</v>
+        <v>2740000</v>
       </c>
       <c r="E100" s="3">
-        <v>1079400</v>
+        <v>-749900</v>
       </c>
       <c r="F100" s="3">
-        <v>-536500</v>
+        <v>1096800</v>
       </c>
       <c r="G100" s="3">
-        <v>805000</v>
+        <v>-545100</v>
       </c>
       <c r="H100" s="3">
-        <v>-917000</v>
+        <v>818000</v>
       </c>
       <c r="I100" s="3">
-        <v>-222100</v>
+        <v>-931800</v>
       </c>
       <c r="J100" s="3">
+        <v>-225700</v>
+      </c>
+      <c r="K100" s="3">
         <v>202800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-169300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>774400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>125200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1497700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-137900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2524300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2499700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62800</v>
+        <v>-61500</v>
       </c>
       <c r="E101" s="3">
-        <v>103500</v>
+        <v>-63800</v>
       </c>
       <c r="F101" s="3">
-        <v>-23900</v>
+        <v>105200</v>
       </c>
       <c r="G101" s="3">
-        <v>-217900</v>
+        <v>-24300</v>
       </c>
       <c r="H101" s="3">
-        <v>27600</v>
+        <v>-221400</v>
       </c>
       <c r="I101" s="3">
-        <v>-193700</v>
+        <v>28000</v>
       </c>
       <c r="J101" s="3">
+        <v>-196800</v>
+      </c>
+      <c r="K101" s="3">
         <v>241800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>402800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-571500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>54700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-173300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>390400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-40300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>961300</v>
+        <v>-629500</v>
       </c>
       <c r="E102" s="3">
-        <v>1449300</v>
+        <v>976900</v>
       </c>
       <c r="F102" s="3">
-        <v>393500</v>
+        <v>1472700</v>
       </c>
       <c r="G102" s="3">
-        <v>-2446100</v>
+        <v>399900</v>
       </c>
       <c r="H102" s="3">
-        <v>-99800</v>
+        <v>-2485600</v>
       </c>
       <c r="I102" s="3">
-        <v>-557100</v>
+        <v>-101400</v>
       </c>
       <c r="J102" s="3">
+        <v>-566100</v>
+      </c>
+      <c r="K102" s="3">
         <v>291000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-758900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2326900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2966000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>150700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>217200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1671700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2186400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-939300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18586600</v>
+        <v>20310600</v>
       </c>
       <c r="E8" s="3">
-        <v>16508100</v>
+        <v>18921300</v>
       </c>
       <c r="F8" s="3">
-        <v>23252200</v>
+        <v>16805400</v>
       </c>
       <c r="G8" s="3">
-        <v>20034100</v>
+        <v>23671000</v>
       </c>
       <c r="H8" s="3">
-        <v>18178800</v>
+        <v>20394900</v>
       </c>
       <c r="I8" s="3">
-        <v>20083600</v>
+        <v>18506200</v>
       </c>
       <c r="J8" s="3">
+        <v>20445300</v>
+      </c>
+      <c r="K8" s="3">
         <v>22673000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20277800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17758400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17637200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24157700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>18645300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16797300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16885000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>21265800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>14981000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13691100</v>
+        <v>14168700</v>
       </c>
       <c r="E9" s="3">
-        <v>12258700</v>
+        <v>13937700</v>
       </c>
       <c r="F9" s="3">
-        <v>16838800</v>
+        <v>12479500</v>
       </c>
       <c r="G9" s="3">
-        <v>14095400</v>
+        <v>17142000</v>
       </c>
       <c r="H9" s="3">
-        <v>12739600</v>
+        <v>14349200</v>
       </c>
       <c r="I9" s="3">
-        <v>15277200</v>
+        <v>12969000</v>
       </c>
       <c r="J9" s="3">
+        <v>15552300</v>
+      </c>
+      <c r="K9" s="3">
         <v>16096400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14260900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12768200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13214300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17387200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>13333600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>12388000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12504000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>15804400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>11304200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4895500</v>
+        <v>6141900</v>
       </c>
       <c r="E10" s="3">
-        <v>4249400</v>
+        <v>4983600</v>
       </c>
       <c r="F10" s="3">
-        <v>6413500</v>
+        <v>4325900</v>
       </c>
       <c r="G10" s="3">
-        <v>5938700</v>
+        <v>6529000</v>
       </c>
       <c r="H10" s="3">
-        <v>5439300</v>
+        <v>6045700</v>
       </c>
       <c r="I10" s="3">
-        <v>4806400</v>
+        <v>5537200</v>
       </c>
       <c r="J10" s="3">
+        <v>4893000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6576600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6017000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4990200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4423000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6770500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5311700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4409400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4381000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5461500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3676700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1046,8 +1065,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1064,14 +1083,17 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>994100</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16430500</v>
+        <v>17256900</v>
       </c>
       <c r="E17" s="3">
-        <v>16173500</v>
+        <v>16726400</v>
       </c>
       <c r="F17" s="3">
-        <v>20419000</v>
+        <v>16464700</v>
       </c>
       <c r="G17" s="3">
-        <v>17400800</v>
+        <v>20786700</v>
       </c>
       <c r="H17" s="3">
-        <v>15998900</v>
+        <v>17714200</v>
       </c>
       <c r="I17" s="3">
-        <v>19302600</v>
+        <v>16287000</v>
       </c>
       <c r="J17" s="3">
+        <v>19650200</v>
+      </c>
+      <c r="K17" s="3">
         <v>19114300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18052800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15985800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17436700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20986200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>16799100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15372500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16047700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>20446500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>14575200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2156000</v>
+        <v>3053700</v>
       </c>
       <c r="E18" s="3">
-        <v>334600</v>
+        <v>2194900</v>
       </c>
       <c r="F18" s="3">
-        <v>2833200</v>
+        <v>340600</v>
       </c>
       <c r="G18" s="3">
-        <v>2633300</v>
+        <v>2884300</v>
       </c>
       <c r="H18" s="3">
-        <v>2179900</v>
+        <v>2680800</v>
       </c>
       <c r="I18" s="3">
-        <v>781000</v>
+        <v>2219200</v>
       </c>
       <c r="J18" s="3">
+        <v>795000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3558800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2225100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1772600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3171600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1846200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1424800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>837200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>819300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>405800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>881000</v>
+        <v>-148500</v>
       </c>
       <c r="E20" s="3">
-        <v>-350500</v>
+        <v>896900</v>
       </c>
       <c r="F20" s="3">
-        <v>106800</v>
+        <v>-356800</v>
       </c>
       <c r="G20" s="3">
-        <v>-132900</v>
+        <v>108800</v>
       </c>
       <c r="H20" s="3">
-        <v>46900</v>
+        <v>-135300</v>
       </c>
       <c r="I20" s="3">
-        <v>298900</v>
+        <v>47800</v>
       </c>
       <c r="J20" s="3">
+        <v>304300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-311000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1094400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-98800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-37800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-26500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-198700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3887600</v>
+        <v>3843400</v>
       </c>
       <c r="E21" s="3">
-        <v>1260800</v>
+        <v>3957600</v>
       </c>
       <c r="F21" s="3">
-        <v>3803400</v>
+        <v>1283500</v>
       </c>
       <c r="G21" s="3">
-        <v>3411700</v>
+        <v>3871900</v>
       </c>
       <c r="H21" s="3">
-        <v>3108700</v>
+        <v>3473100</v>
       </c>
       <c r="I21" s="3">
-        <v>1982600</v>
+        <v>3164700</v>
       </c>
       <c r="J21" s="3">
+        <v>2018300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4253800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3120100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3651000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1035200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3931300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2603500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2139500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1401400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1316900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1174200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17000</v>
+        <v>26000</v>
       </c>
       <c r="E22" s="3">
-        <v>21700</v>
+        <v>17300</v>
       </c>
       <c r="F22" s="3">
-        <v>10700</v>
+        <v>22100</v>
       </c>
       <c r="G22" s="3">
-        <v>26300</v>
+        <v>10800</v>
       </c>
       <c r="H22" s="3">
-        <v>46100</v>
+        <v>26800</v>
       </c>
       <c r="I22" s="3">
-        <v>16600</v>
+        <v>46900</v>
       </c>
       <c r="J22" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K22" s="3">
         <v>33100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>36000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>40800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>33300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3020000</v>
+        <v>2879200</v>
       </c>
       <c r="E23" s="3">
-        <v>-37600</v>
+        <v>3074400</v>
       </c>
       <c r="F23" s="3">
-        <v>2929400</v>
+        <v>-38300</v>
       </c>
       <c r="G23" s="3">
-        <v>2474200</v>
+        <v>2982200</v>
       </c>
       <c r="H23" s="3">
-        <v>2180800</v>
+        <v>2518700</v>
       </c>
       <c r="I23" s="3">
-        <v>1063300</v>
+        <v>2220100</v>
       </c>
       <c r="J23" s="3">
+        <v>1082400</v>
+      </c>
+      <c r="K23" s="3">
         <v>3214600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2289000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2836900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3101800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1795000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1346000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>779300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>587400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>359400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>688000</v>
+        <v>-1575100</v>
       </c>
       <c r="E24" s="3">
-        <v>-186200</v>
+        <v>700400</v>
       </c>
       <c r="F24" s="3">
-        <v>660600</v>
+        <v>-189600</v>
       </c>
       <c r="G24" s="3">
-        <v>584600</v>
+        <v>672500</v>
       </c>
       <c r="H24" s="3">
-        <v>613700</v>
+        <v>595100</v>
       </c>
       <c r="I24" s="3">
-        <v>107000</v>
+        <v>624800</v>
       </c>
       <c r="J24" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-950800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>550600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>683800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>120100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>255200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>504000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>492600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>382500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>327800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2332100</v>
+        <v>4454300</v>
       </c>
       <c r="E26" s="3">
-        <v>148600</v>
+        <v>2374100</v>
       </c>
       <c r="F26" s="3">
-        <v>2268800</v>
+        <v>151300</v>
       </c>
       <c r="G26" s="3">
-        <v>1889600</v>
+        <v>2309700</v>
       </c>
       <c r="H26" s="3">
-        <v>1567100</v>
+        <v>1923600</v>
       </c>
       <c r="I26" s="3">
-        <v>956300</v>
+        <v>1595300</v>
       </c>
       <c r="J26" s="3">
+        <v>973500</v>
+      </c>
+      <c r="K26" s="3">
         <v>4165400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1738400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2153100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-43600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2846600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1291000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>853400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>396700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>259600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2201900</v>
+        <v>4417100</v>
       </c>
       <c r="E27" s="3">
-        <v>119400</v>
+        <v>2241500</v>
       </c>
       <c r="F27" s="3">
-        <v>2166800</v>
+        <v>121500</v>
       </c>
       <c r="G27" s="3">
-        <v>1773700</v>
+        <v>2205900</v>
       </c>
       <c r="H27" s="3">
-        <v>1436000</v>
+        <v>1805600</v>
       </c>
       <c r="I27" s="3">
-        <v>829400</v>
+        <v>1461900</v>
       </c>
       <c r="J27" s="3">
+        <v>844300</v>
+      </c>
+      <c r="K27" s="3">
         <v>4049400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1607200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2058400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-152100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2674900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1182900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>731100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>245300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>174100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-881000</v>
+        <v>148500</v>
       </c>
       <c r="E32" s="3">
-        <v>350500</v>
+        <v>-896900</v>
       </c>
       <c r="F32" s="3">
-        <v>-106800</v>
+        <v>356800</v>
       </c>
       <c r="G32" s="3">
-        <v>132900</v>
+        <v>-108800</v>
       </c>
       <c r="H32" s="3">
-        <v>-46900</v>
+        <v>135300</v>
       </c>
       <c r="I32" s="3">
-        <v>-298900</v>
+        <v>-47800</v>
       </c>
       <c r="J32" s="3">
+        <v>-304300</v>
+      </c>
+      <c r="K32" s="3">
         <v>311000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1094400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>98800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>37800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>26500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>38000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>198700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2201900</v>
+        <v>4417100</v>
       </c>
       <c r="E33" s="3">
-        <v>119400</v>
+        <v>2241500</v>
       </c>
       <c r="F33" s="3">
-        <v>2166800</v>
+        <v>121500</v>
       </c>
       <c r="G33" s="3">
-        <v>1773700</v>
+        <v>2205900</v>
       </c>
       <c r="H33" s="3">
-        <v>1436000</v>
+        <v>1805600</v>
       </c>
       <c r="I33" s="3">
-        <v>829400</v>
+        <v>1461900</v>
       </c>
       <c r="J33" s="3">
+        <v>844300</v>
+      </c>
+      <c r="K33" s="3">
         <v>4049400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1607200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2058400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-152100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2674900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1182900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>731100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>245300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>174100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2201900</v>
+        <v>4417100</v>
       </c>
       <c r="E35" s="3">
-        <v>119400</v>
+        <v>2241500</v>
       </c>
       <c r="F35" s="3">
-        <v>2166800</v>
+        <v>121500</v>
       </c>
       <c r="G35" s="3">
-        <v>1773700</v>
+        <v>2205900</v>
       </c>
       <c r="H35" s="3">
-        <v>1436000</v>
+        <v>1805600</v>
       </c>
       <c r="I35" s="3">
-        <v>829400</v>
+        <v>1461900</v>
       </c>
       <c r="J35" s="3">
+        <v>844300</v>
+      </c>
+      <c r="K35" s="3">
         <v>4049400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1607200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2058400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-152100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2674900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1182900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>731100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>245300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>174100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,485 +2301,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13674900</v>
+        <v>18108800</v>
       </c>
       <c r="E41" s="3">
-        <v>14276700</v>
+        <v>13921200</v>
       </c>
       <c r="F41" s="3">
-        <v>13299800</v>
+        <v>14533800</v>
       </c>
       <c r="G41" s="3">
-        <v>11827100</v>
+        <v>13539300</v>
       </c>
       <c r="H41" s="3">
-        <v>11427200</v>
+        <v>12040100</v>
       </c>
       <c r="I41" s="3">
-        <v>13877500</v>
+        <v>11633000</v>
       </c>
       <c r="J41" s="3">
+        <v>14127400</v>
+      </c>
+      <c r="K41" s="3">
         <v>13978900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14313800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13720900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14340400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>12013500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9047500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8896900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8516500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6844800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4658400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>19880400</v>
+        <v>24413800</v>
       </c>
       <c r="E42" s="3">
-        <v>17443000</v>
+        <v>20238400</v>
       </c>
       <c r="F42" s="3">
-        <v>14794000</v>
+        <v>17757100</v>
       </c>
       <c r="G42" s="3">
-        <v>13645800</v>
+        <v>15060400</v>
       </c>
       <c r="H42" s="3">
-        <v>13199000</v>
+        <v>13891600</v>
       </c>
       <c r="I42" s="3">
-        <v>12503600</v>
+        <v>13436700</v>
       </c>
       <c r="J42" s="3">
+        <v>12728800</v>
+      </c>
+      <c r="K42" s="3">
         <v>11321600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12409000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11263700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10636500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>11044100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>10301700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9934000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9326300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9118800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8207400</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>10940400</v>
+        <v>12857100</v>
       </c>
       <c r="E43" s="3">
-        <v>11243300</v>
+        <v>11137400</v>
       </c>
       <c r="F43" s="3">
-        <v>14199900</v>
+        <v>11445800</v>
       </c>
       <c r="G43" s="3">
-        <v>13091600</v>
+        <v>14455600</v>
       </c>
       <c r="H43" s="3">
-        <v>12675400</v>
+        <v>13327400</v>
       </c>
       <c r="I43" s="3">
-        <v>12172100</v>
+        <v>12903700</v>
       </c>
       <c r="J43" s="3">
+        <v>12391300</v>
+      </c>
+      <c r="K43" s="3">
         <v>15166200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14602500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>12082900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10879500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>15438300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>13939800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>11585000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10443900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>13453700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>10786100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5558200</v>
+        <v>6551000</v>
       </c>
       <c r="E44" s="3">
-        <v>5569300</v>
+        <v>5658300</v>
       </c>
       <c r="F44" s="3">
-        <v>5733600</v>
+        <v>5669600</v>
       </c>
       <c r="G44" s="3">
-        <v>7358800</v>
+        <v>5836900</v>
       </c>
       <c r="H44" s="3">
-        <v>6548000</v>
+        <v>7491300</v>
       </c>
       <c r="I44" s="3">
-        <v>6166900</v>
+        <v>6665900</v>
       </c>
       <c r="J44" s="3">
+        <v>6278000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6381900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7568000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6296000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6264200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6813100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>8413100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>6582200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5684200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6041700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7649600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5742100</v>
+        <v>5173000</v>
       </c>
       <c r="E45" s="3">
-        <v>5607600</v>
+        <v>5845500</v>
       </c>
       <c r="F45" s="3">
-        <v>5020000</v>
+        <v>5708500</v>
       </c>
       <c r="G45" s="3">
-        <v>5130300</v>
+        <v>5110400</v>
       </c>
       <c r="H45" s="3">
-        <v>5303800</v>
+        <v>5222600</v>
       </c>
       <c r="I45" s="3">
-        <v>4807800</v>
+        <v>5399300</v>
       </c>
       <c r="J45" s="3">
+        <v>4894400</v>
+      </c>
+      <c r="K45" s="3">
         <v>4897000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4465800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4725400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4671400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4960600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4588300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>5119600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4664400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>5340100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4742600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>55796000</v>
+        <v>67103700</v>
       </c>
       <c r="E46" s="3">
-        <v>54139800</v>
+        <v>56800800</v>
       </c>
       <c r="F46" s="3">
-        <v>53047300</v>
+        <v>55114700</v>
       </c>
       <c r="G46" s="3">
-        <v>51053600</v>
+        <v>54002600</v>
       </c>
       <c r="H46" s="3">
-        <v>49153400</v>
+        <v>51973000</v>
       </c>
       <c r="I46" s="3">
-        <v>49528000</v>
+        <v>50038600</v>
       </c>
       <c r="J46" s="3">
+        <v>50419900</v>
+      </c>
+      <c r="K46" s="3">
         <v>51745700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>53359100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>48088900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>46791900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>50269600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>46290400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>42117700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>38635300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>40799000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>36044100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124051600</v>
+        <v>128602300</v>
       </c>
       <c r="E47" s="3">
-        <v>120210200</v>
+        <v>126285600</v>
       </c>
       <c r="F47" s="3">
-        <v>117801300</v>
+        <v>122375000</v>
       </c>
       <c r="G47" s="3">
-        <v>115326700</v>
+        <v>119922700</v>
       </c>
       <c r="H47" s="3">
-        <v>114309900</v>
+        <v>117403500</v>
       </c>
       <c r="I47" s="3">
-        <v>110680700</v>
+        <v>116368400</v>
       </c>
       <c r="J47" s="3">
+        <v>112673900</v>
+      </c>
+      <c r="K47" s="3">
         <v>108107900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>105028900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100663600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97234800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95431900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94368800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>93033600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>89691600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>88131100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>85585600</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12361900</v>
+        <v>12817900</v>
       </c>
       <c r="E48" s="3">
-        <v>12283800</v>
+        <v>12584500</v>
       </c>
       <c r="F48" s="3">
-        <v>11306500</v>
+        <v>12505100</v>
       </c>
       <c r="G48" s="3">
-        <v>10914000</v>
+        <v>11510100</v>
       </c>
       <c r="H48" s="3">
-        <v>10513900</v>
+        <v>11110500</v>
       </c>
       <c r="I48" s="3">
-        <v>7335400</v>
+        <v>10703300</v>
       </c>
       <c r="J48" s="3">
+        <v>7467500</v>
+      </c>
+      <c r="K48" s="3">
         <v>7153500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6891700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6771400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6684800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7156100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6907000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6844300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6725200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6818600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6749300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15916100</v>
+        <v>16121500</v>
       </c>
       <c r="E49" s="3">
-        <v>15955500</v>
+        <v>16202700</v>
       </c>
       <c r="F49" s="3">
-        <v>16197700</v>
+        <v>16242800</v>
       </c>
       <c r="G49" s="3">
-        <v>15471500</v>
+        <v>16489300</v>
       </c>
       <c r="H49" s="3">
-        <v>15518500</v>
+        <v>15750200</v>
       </c>
       <c r="I49" s="3">
-        <v>15920700</v>
+        <v>15797900</v>
       </c>
       <c r="J49" s="3">
+        <v>16207400</v>
+      </c>
+      <c r="K49" s="3">
         <v>15923500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9974400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9722800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9561200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10155200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10085800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9963300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9816600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9674600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10031500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14907200</v>
+        <v>15141400</v>
       </c>
       <c r="E52" s="3">
-        <v>14902100</v>
+        <v>15175600</v>
       </c>
       <c r="F52" s="3">
-        <v>15345700</v>
+        <v>15170500</v>
       </c>
       <c r="G52" s="3">
-        <v>14596100</v>
+        <v>15622100</v>
       </c>
       <c r="H52" s="3">
-        <v>14478900</v>
+        <v>14858900</v>
       </c>
       <c r="I52" s="3">
-        <v>14601300</v>
+        <v>14739600</v>
       </c>
       <c r="J52" s="3">
+        <v>14864300</v>
+      </c>
+      <c r="K52" s="3">
         <v>14574400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13569300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12584200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12079700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12550200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12273800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12010600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11780400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11532000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10644200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>223032800</v>
+        <v>239786900</v>
       </c>
       <c r="E54" s="3">
-        <v>217491400</v>
+        <v>227049300</v>
       </c>
       <c r="F54" s="3">
-        <v>213698400</v>
+        <v>221408100</v>
       </c>
       <c r="G54" s="3">
-        <v>207361800</v>
+        <v>217546800</v>
       </c>
       <c r="H54" s="3">
-        <v>203974600</v>
+        <v>211096100</v>
       </c>
       <c r="I54" s="3">
-        <v>198066200</v>
+        <v>207647900</v>
       </c>
       <c r="J54" s="3">
+        <v>201633000</v>
+      </c>
+      <c r="K54" s="3">
         <v>197505000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>188823400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>177830800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>172352500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>175562900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>169925800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>163969500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>156649100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>156955300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>149054800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,326 +3129,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3693100</v>
+        <v>6435000</v>
       </c>
       <c r="E57" s="3">
-        <v>3594800</v>
+        <v>3759700</v>
       </c>
       <c r="F57" s="3">
-        <v>4382700</v>
+        <v>3659600</v>
       </c>
       <c r="G57" s="3">
-        <v>5762200</v>
+        <v>4461600</v>
       </c>
       <c r="H57" s="3">
-        <v>5128300</v>
+        <v>5866000</v>
       </c>
       <c r="I57" s="3">
-        <v>4645700</v>
+        <v>5220600</v>
       </c>
       <c r="J57" s="3">
+        <v>4729300</v>
+      </c>
+      <c r="K57" s="3">
         <v>5640400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7258600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5298700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4235700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5950600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7876800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6117000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4788900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5555200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6533600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9496000</v>
+        <v>13585000</v>
       </c>
       <c r="E58" s="3">
-        <v>7929400</v>
+        <v>9667000</v>
       </c>
       <c r="F58" s="3">
-        <v>8774200</v>
+        <v>8072200</v>
       </c>
       <c r="G58" s="3">
-        <v>8560100</v>
+        <v>8932200</v>
       </c>
       <c r="H58" s="3">
-        <v>8682500</v>
+        <v>8714300</v>
       </c>
       <c r="I58" s="3">
-        <v>7467800</v>
+        <v>8838900</v>
       </c>
       <c r="J58" s="3">
+        <v>7602300</v>
+      </c>
+      <c r="K58" s="3">
         <v>7951200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7385100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6803500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6523400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7079100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6759300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6674800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4595400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4746500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3653400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46567000</v>
+        <v>52197300</v>
       </c>
       <c r="E59" s="3">
-        <v>47385500</v>
+        <v>47405600</v>
       </c>
       <c r="F59" s="3">
-        <v>47291500</v>
+        <v>48238800</v>
       </c>
       <c r="G59" s="3">
-        <v>45295400</v>
+        <v>48143100</v>
       </c>
       <c r="H59" s="3">
-        <v>45132600</v>
+        <v>46111100</v>
       </c>
       <c r="I59" s="3">
-        <v>45280000</v>
+        <v>45945300</v>
       </c>
       <c r="J59" s="3">
+        <v>46095400</v>
+      </c>
+      <c r="K59" s="3">
         <v>46276800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>43249200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>40326500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40050600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41407800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>39021200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>37272400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>36932600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>37240600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>33392600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59756100</v>
+        <v>72217300</v>
       </c>
       <c r="E60" s="3">
-        <v>58909800</v>
+        <v>60832200</v>
       </c>
       <c r="F60" s="3">
-        <v>60448300</v>
+        <v>59970700</v>
       </c>
       <c r="G60" s="3">
-        <v>59617700</v>
+        <v>61536900</v>
       </c>
       <c r="H60" s="3">
-        <v>58943400</v>
+        <v>60691400</v>
       </c>
       <c r="I60" s="3">
-        <v>57393500</v>
+        <v>60004800</v>
       </c>
       <c r="J60" s="3">
+        <v>58427000</v>
+      </c>
+      <c r="K60" s="3">
         <v>59868300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>57893000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>52428700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>50809700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>54437500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53657300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>50064300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46316800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>47542300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43579500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6175100</v>
+        <v>7165000</v>
       </c>
       <c r="E61" s="3">
-        <v>5994100</v>
+        <v>6286300</v>
       </c>
       <c r="F61" s="3">
-        <v>5963300</v>
+        <v>6102000</v>
       </c>
       <c r="G61" s="3">
-        <v>4999100</v>
+        <v>6070700</v>
       </c>
       <c r="H61" s="3">
-        <v>4985500</v>
+        <v>5089100</v>
       </c>
       <c r="I61" s="3">
-        <v>5365400</v>
+        <v>5075300</v>
       </c>
       <c r="J61" s="3">
+        <v>5462100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5183000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4739400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5191200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5636000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5371500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5314100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5437900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6044600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6239000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5809000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>109884400</v>
+        <v>111580900</v>
       </c>
       <c r="E62" s="3">
-        <v>107301000</v>
+        <v>111863200</v>
       </c>
       <c r="F62" s="3">
-        <v>101075400</v>
+        <v>109233300</v>
       </c>
       <c r="G62" s="3">
-        <v>99077300</v>
+        <v>102895700</v>
       </c>
       <c r="H62" s="3">
-        <v>97057000</v>
+        <v>100861600</v>
       </c>
       <c r="I62" s="3">
-        <v>93341900</v>
+        <v>98804800</v>
       </c>
       <c r="J62" s="3">
+        <v>95022800</v>
+      </c>
+      <c r="K62" s="3">
         <v>90392600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88830400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85014300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82853200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82038700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80277400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>79128200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>76369600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>75790900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>73598000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>182149600</v>
+        <v>191443800</v>
       </c>
       <c r="E66" s="3">
-        <v>178548500</v>
+        <v>185429800</v>
       </c>
       <c r="F66" s="3">
-        <v>173752100</v>
+        <v>181763900</v>
       </c>
       <c r="G66" s="3">
-        <v>170513500</v>
+        <v>176881100</v>
       </c>
       <c r="H66" s="3">
-        <v>167663600</v>
+        <v>173584100</v>
       </c>
       <c r="I66" s="3">
-        <v>162700400</v>
+        <v>170683000</v>
       </c>
       <c r="J66" s="3">
+        <v>165630400</v>
+      </c>
+      <c r="K66" s="3">
         <v>161814200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>157562200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>148525000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>145527500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>148082300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>145290100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>140539100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>134498600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>135197800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>128564200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28297100</v>
+        <v>32848000</v>
       </c>
       <c r="E72" s="3">
-        <v>26138000</v>
+        <v>28806700</v>
       </c>
       <c r="F72" s="3">
-        <v>26980000</v>
+        <v>26608700</v>
       </c>
       <c r="G72" s="3">
-        <v>24813200</v>
+        <v>27465900</v>
       </c>
       <c r="H72" s="3">
-        <v>23271800</v>
+        <v>25260000</v>
       </c>
       <c r="I72" s="3">
-        <v>21906300</v>
+        <v>23690900</v>
       </c>
       <c r="J72" s="3">
+        <v>22300800</v>
+      </c>
+      <c r="K72" s="3">
         <v>21313100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16989300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15224000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>13021100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13344800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10669900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9629800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8731300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8598100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8424000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40883200</v>
+        <v>48343100</v>
       </c>
       <c r="E76" s="3">
-        <v>38942900</v>
+        <v>41619500</v>
       </c>
       <c r="F76" s="3">
-        <v>39946300</v>
+        <v>39644200</v>
       </c>
       <c r="G76" s="3">
-        <v>36848400</v>
+        <v>40665700</v>
       </c>
       <c r="H76" s="3">
-        <v>36311000</v>
+        <v>37512000</v>
       </c>
       <c r="I76" s="3">
-        <v>35365800</v>
+        <v>36964900</v>
       </c>
       <c r="J76" s="3">
+        <v>36002700</v>
+      </c>
+      <c r="K76" s="3">
         <v>35690800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31261200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29305700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26825000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27480600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24635700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23430400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22150600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21757500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20490600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2201900</v>
+        <v>4417100</v>
       </c>
       <c r="E81" s="3">
-        <v>119400</v>
+        <v>2241500</v>
       </c>
       <c r="F81" s="3">
-        <v>2166800</v>
+        <v>121500</v>
       </c>
       <c r="G81" s="3">
-        <v>1773700</v>
+        <v>2205900</v>
       </c>
       <c r="H81" s="3">
-        <v>1436000</v>
+        <v>1805600</v>
       </c>
       <c r="I81" s="3">
-        <v>829400</v>
+        <v>1461900</v>
       </c>
       <c r="J81" s="3">
+        <v>844300</v>
+      </c>
+      <c r="K81" s="3">
         <v>4049400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1607200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2058400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-152100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2674900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1182900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>731100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>245300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>174100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>850600</v>
+        <v>938200</v>
       </c>
       <c r="E83" s="3">
-        <v>1276800</v>
+        <v>865900</v>
       </c>
       <c r="F83" s="3">
-        <v>863300</v>
+        <v>1299700</v>
       </c>
       <c r="G83" s="3">
-        <v>911200</v>
+        <v>878900</v>
       </c>
       <c r="H83" s="3">
-        <v>881800</v>
+        <v>927600</v>
       </c>
       <c r="I83" s="3">
-        <v>902700</v>
+        <v>897700</v>
       </c>
       <c r="J83" s="3">
+        <v>918900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1006100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>795100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>783900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>933400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>797600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>783800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>752700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>598700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>696200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>776200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1178700</v>
+        <v>4880400</v>
       </c>
       <c r="E89" s="3">
-        <v>4869800</v>
+        <v>1199900</v>
       </c>
       <c r="F89" s="3">
-        <v>3998300</v>
+        <v>4957500</v>
       </c>
       <c r="G89" s="3">
-        <v>3877500</v>
+        <v>4070300</v>
       </c>
       <c r="H89" s="3">
-        <v>-31700</v>
+        <v>3947300</v>
       </c>
       <c r="I89" s="3">
-        <v>3374300</v>
+        <v>-32300</v>
       </c>
       <c r="J89" s="3">
+        <v>3435000</v>
+      </c>
+      <c r="K89" s="3">
         <v>4642500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2918100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>833200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5375600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3562000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1945400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>462000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4399600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2055800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>579200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1254300</v>
+        <v>-1368600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1179700</v>
+        <v>-1276900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1274500</v>
+        <v>-1201000</v>
       </c>
       <c r="G91" s="3">
-        <v>-958300</v>
+        <v>-1297500</v>
       </c>
       <c r="H91" s="3">
-        <v>-738800</v>
+        <v>-975500</v>
       </c>
       <c r="I91" s="3">
-        <v>-780100</v>
+        <v>-752100</v>
       </c>
       <c r="J91" s="3">
+        <v>-794100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-709800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-758400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-665200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-661800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-538100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-665300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-512200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-648000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-489200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-880800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4486600</v>
+        <v>-3914400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3079300</v>
+        <v>-4567400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3727500</v>
+        <v>-3134700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2908100</v>
+        <v>-3794700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3050600</v>
+        <v>-2960500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2571900</v>
+        <v>-3105500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2618200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4786100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3071600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1794000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2307800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1402300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1974600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2416700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2784100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3977900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-284100</v>
+        <v>-3400</v>
       </c>
       <c r="E96" s="3">
+        <v>-289200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-236700</v>
+      </c>
+      <c r="H96" s="3">
         <v>400</v>
       </c>
-      <c r="F96" s="3">
-        <v>-232500</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
+        <v>-240600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>100</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-180200</v>
+      </c>
+      <c r="L96" s="3">
+        <v>200</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-172800</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-136500</v>
+      </c>
+      <c r="P96" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="R96" s="3">
+        <v>100</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="T96" s="3">
         <v>400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-236300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-180200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-172800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-136500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>300</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-112400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2740000</v>
+        <v>3330400</v>
       </c>
       <c r="E100" s="3">
-        <v>-749900</v>
+        <v>2789300</v>
       </c>
       <c r="F100" s="3">
-        <v>1096800</v>
+        <v>-763400</v>
       </c>
       <c r="G100" s="3">
-        <v>-545100</v>
+        <v>1116600</v>
       </c>
       <c r="H100" s="3">
-        <v>818000</v>
+        <v>-554900</v>
       </c>
       <c r="I100" s="3">
-        <v>-931800</v>
+        <v>832800</v>
       </c>
       <c r="J100" s="3">
+        <v>-948600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-225700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>202800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-169300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>774400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>125200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1497700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-137900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2524300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2499700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-61500</v>
+        <v>-108800</v>
       </c>
       <c r="E101" s="3">
-        <v>-63800</v>
+        <v>-62600</v>
       </c>
       <c r="F101" s="3">
-        <v>105200</v>
+        <v>-64900</v>
       </c>
       <c r="G101" s="3">
-        <v>-24300</v>
+        <v>107100</v>
       </c>
       <c r="H101" s="3">
-        <v>-221400</v>
+        <v>-24800</v>
       </c>
       <c r="I101" s="3">
-        <v>28000</v>
+        <v>-225400</v>
       </c>
       <c r="J101" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-196800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>241800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>402800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-571500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>31900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>54700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-173300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>390400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-40300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-629500</v>
+        <v>4187600</v>
       </c>
       <c r="E102" s="3">
-        <v>976900</v>
+        <v>-640800</v>
       </c>
       <c r="F102" s="3">
-        <v>1472700</v>
+        <v>994500</v>
       </c>
       <c r="G102" s="3">
-        <v>399900</v>
+        <v>1499200</v>
       </c>
       <c r="H102" s="3">
-        <v>-2485600</v>
+        <v>407100</v>
       </c>
       <c r="I102" s="3">
-        <v>-101400</v>
+        <v>-2530400</v>
       </c>
       <c r="J102" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-566100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>291000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-758900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2326900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2966000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>150700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>217200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1671700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2186400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-939300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SNE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20310600</v>
+        <v>24700300</v>
       </c>
       <c r="E8" s="3">
-        <v>18921300</v>
+        <v>19359500</v>
       </c>
       <c r="F8" s="3">
-        <v>16805400</v>
+        <v>18035300</v>
       </c>
       <c r="G8" s="3">
-        <v>23671000</v>
+        <v>16018500</v>
       </c>
       <c r="H8" s="3">
-        <v>20394900</v>
+        <v>22562600</v>
       </c>
       <c r="I8" s="3">
-        <v>18506200</v>
+        <v>19439900</v>
       </c>
       <c r="J8" s="3">
+        <v>17639600</v>
+      </c>
+      <c r="K8" s="3">
         <v>20445300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>22673000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20277800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17758400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17637200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24157700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>18645300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16797300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16885000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>21265800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>14981000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14168700</v>
+        <v>17694200</v>
       </c>
       <c r="E9" s="3">
-        <v>13937700</v>
+        <v>13505300</v>
       </c>
       <c r="F9" s="3">
-        <v>12479500</v>
+        <v>13285000</v>
       </c>
       <c r="G9" s="3">
-        <v>17142000</v>
+        <v>11895100</v>
       </c>
       <c r="H9" s="3">
-        <v>14349200</v>
+        <v>16339300</v>
       </c>
       <c r="I9" s="3">
-        <v>12969000</v>
+        <v>13677300</v>
       </c>
       <c r="J9" s="3">
+        <v>12361700</v>
+      </c>
+      <c r="K9" s="3">
         <v>15552300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16096400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14260900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12768200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13214300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17387200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>13333600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12388000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>12504000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>15804400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>11304200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6141900</v>
+        <v>7006100</v>
       </c>
       <c r="E10" s="3">
-        <v>4983600</v>
+        <v>5854300</v>
       </c>
       <c r="F10" s="3">
-        <v>4325900</v>
+        <v>4750300</v>
       </c>
       <c r="G10" s="3">
-        <v>6529000</v>
+        <v>4123400</v>
       </c>
       <c r="H10" s="3">
-        <v>6045700</v>
+        <v>6223200</v>
       </c>
       <c r="I10" s="3">
-        <v>5537200</v>
+        <v>5762600</v>
       </c>
       <c r="J10" s="3">
+        <v>5277900</v>
+      </c>
+      <c r="K10" s="3">
         <v>4893000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6576600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6017000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4990200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4423000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6770500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5311700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4409400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4381000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5461500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3676700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1087,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1086,14 +1105,17 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>994100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17256900</v>
+        <v>21409800</v>
       </c>
       <c r="E17" s="3">
-        <v>16726400</v>
+        <v>16448800</v>
       </c>
       <c r="F17" s="3">
-        <v>16464700</v>
+        <v>15943200</v>
       </c>
       <c r="G17" s="3">
-        <v>20786700</v>
+        <v>15693800</v>
       </c>
       <c r="H17" s="3">
-        <v>17714200</v>
+        <v>19813400</v>
       </c>
       <c r="I17" s="3">
-        <v>16287000</v>
+        <v>16884700</v>
       </c>
       <c r="J17" s="3">
+        <v>15524400</v>
+      </c>
+      <c r="K17" s="3">
         <v>19650200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>19114300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18052800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15985800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17436700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>20986200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>16799100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>15372500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16047700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>20446500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>14575200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3053700</v>
+        <v>3290500</v>
       </c>
       <c r="E18" s="3">
-        <v>2194900</v>
+        <v>2910700</v>
       </c>
       <c r="F18" s="3">
-        <v>340600</v>
+        <v>2092100</v>
       </c>
       <c r="G18" s="3">
-        <v>2884300</v>
+        <v>324700</v>
       </c>
       <c r="H18" s="3">
-        <v>2680800</v>
+        <v>2749200</v>
       </c>
       <c r="I18" s="3">
-        <v>2219200</v>
+        <v>2555200</v>
       </c>
       <c r="J18" s="3">
+        <v>2115300</v>
+      </c>
+      <c r="K18" s="3">
         <v>795000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3558800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2225100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1772600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3171600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1846200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1424800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>837200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>819300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>405800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,288 +1333,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-148500</v>
+        <v>1107500</v>
       </c>
       <c r="E20" s="3">
-        <v>896900</v>
+        <v>-141600</v>
       </c>
       <c r="F20" s="3">
-        <v>-356800</v>
+        <v>854900</v>
       </c>
       <c r="G20" s="3">
-        <v>108800</v>
+        <v>-340100</v>
       </c>
       <c r="H20" s="3">
-        <v>-135300</v>
+        <v>103700</v>
       </c>
       <c r="I20" s="3">
-        <v>47800</v>
+        <v>-128900</v>
       </c>
       <c r="J20" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K20" s="3">
         <v>304300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-311000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1094400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-98800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-37800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-38000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-34500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-198700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3843400</v>
+        <v>5303300</v>
       </c>
       <c r="E21" s="3">
-        <v>3957600</v>
+        <v>3663400</v>
       </c>
       <c r="F21" s="3">
-        <v>1283500</v>
+        <v>3772300</v>
       </c>
       <c r="G21" s="3">
-        <v>3871900</v>
+        <v>1223400</v>
       </c>
       <c r="H21" s="3">
-        <v>3473100</v>
+        <v>3690600</v>
       </c>
       <c r="I21" s="3">
-        <v>3164700</v>
+        <v>3310500</v>
       </c>
       <c r="J21" s="3">
+        <v>3016500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2018300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4253800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3120100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3651000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1035200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3931300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2603500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2139500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1401400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1316900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1174200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>26000</v>
+        <v>25200</v>
       </c>
       <c r="E22" s="3">
-        <v>17300</v>
+        <v>24800</v>
       </c>
       <c r="F22" s="3">
-        <v>22100</v>
+        <v>16500</v>
       </c>
       <c r="G22" s="3">
-        <v>10800</v>
+        <v>21000</v>
       </c>
       <c r="H22" s="3">
-        <v>26800</v>
+        <v>10300</v>
       </c>
       <c r="I22" s="3">
-        <v>46900</v>
+        <v>25500</v>
       </c>
       <c r="J22" s="3">
+        <v>44700</v>
+      </c>
+      <c r="K22" s="3">
         <v>16900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>33100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>36000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>32000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>33300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>38600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2879200</v>
+        <v>4372700</v>
       </c>
       <c r="E23" s="3">
-        <v>3074400</v>
+        <v>2744400</v>
       </c>
       <c r="F23" s="3">
-        <v>-38300</v>
+        <v>2930500</v>
       </c>
       <c r="G23" s="3">
-        <v>2982200</v>
+        <v>-36500</v>
       </c>
       <c r="H23" s="3">
-        <v>2518700</v>
+        <v>2842500</v>
       </c>
       <c r="I23" s="3">
-        <v>2220100</v>
+        <v>2400800</v>
       </c>
       <c r="J23" s="3">
+        <v>2116100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1082400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3214600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2289000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2836900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>76600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3101800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1795000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1346000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>779300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>587400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>359400</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1575100</v>
+        <v>949500</v>
       </c>
       <c r="E24" s="3">
-        <v>700400</v>
+        <v>-1501300</v>
       </c>
       <c r="F24" s="3">
-        <v>-189600</v>
+        <v>667600</v>
       </c>
       <c r="G24" s="3">
-        <v>672500</v>
+        <v>-180700</v>
       </c>
       <c r="H24" s="3">
-        <v>595100</v>
+        <v>641000</v>
       </c>
       <c r="I24" s="3">
-        <v>624800</v>
+        <v>567300</v>
       </c>
       <c r="J24" s="3">
+        <v>595500</v>
+      </c>
+      <c r="K24" s="3">
         <v>108900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-950800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>550600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>683800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>120100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>255200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>504000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>492600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>382500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>327800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4454300</v>
+        <v>3423200</v>
       </c>
       <c r="E26" s="3">
-        <v>2374100</v>
+        <v>4245700</v>
       </c>
       <c r="F26" s="3">
-        <v>151300</v>
+        <v>2262900</v>
       </c>
       <c r="G26" s="3">
-        <v>2309700</v>
+        <v>144200</v>
       </c>
       <c r="H26" s="3">
-        <v>1923600</v>
+        <v>2201600</v>
       </c>
       <c r="I26" s="3">
-        <v>1595300</v>
+        <v>1833500</v>
       </c>
       <c r="J26" s="3">
+        <v>1520600</v>
+      </c>
+      <c r="K26" s="3">
         <v>973500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4165400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1738400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2153100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2846600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1291000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>853400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>396700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>259600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4417100</v>
+        <v>3406500</v>
       </c>
       <c r="E27" s="3">
-        <v>2241500</v>
+        <v>4210200</v>
       </c>
       <c r="F27" s="3">
-        <v>121500</v>
+        <v>2136600</v>
       </c>
       <c r="G27" s="3">
-        <v>2205900</v>
+        <v>115800</v>
       </c>
       <c r="H27" s="3">
-        <v>1805600</v>
+        <v>2102600</v>
       </c>
       <c r="I27" s="3">
-        <v>1461900</v>
+        <v>1721000</v>
       </c>
       <c r="J27" s="3">
+        <v>1393400</v>
+      </c>
+      <c r="K27" s="3">
         <v>844300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4049400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1607200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2058400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-152100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2674900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1182900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>731100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>245300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>174100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>148500</v>
+        <v>-1107500</v>
       </c>
       <c r="E32" s="3">
-        <v>-896900</v>
+        <v>141600</v>
       </c>
       <c r="F32" s="3">
-        <v>356800</v>
+        <v>-854900</v>
       </c>
       <c r="G32" s="3">
-        <v>-108800</v>
+        <v>340100</v>
       </c>
       <c r="H32" s="3">
-        <v>135300</v>
+        <v>-103700</v>
       </c>
       <c r="I32" s="3">
-        <v>-47800</v>
+        <v>128900</v>
       </c>
       <c r="J32" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-304300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>311000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1094400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>98800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>37800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>26500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>38000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>34500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>198700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4417100</v>
+        <v>3406500</v>
       </c>
       <c r="E33" s="3">
-        <v>2241500</v>
+        <v>4210200</v>
       </c>
       <c r="F33" s="3">
-        <v>121500</v>
+        <v>2136600</v>
       </c>
       <c r="G33" s="3">
-        <v>2205900</v>
+        <v>115800</v>
       </c>
       <c r="H33" s="3">
-        <v>1805600</v>
+        <v>2102600</v>
       </c>
       <c r="I33" s="3">
-        <v>1461900</v>
+        <v>1721000</v>
       </c>
       <c r="J33" s="3">
+        <v>1393400</v>
+      </c>
+      <c r="K33" s="3">
         <v>844300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4049400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1607200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2058400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-152100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2674900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1182900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>731100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>245300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>174100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4417100</v>
+        <v>3406500</v>
       </c>
       <c r="E35" s="3">
-        <v>2241500</v>
+        <v>4210200</v>
       </c>
       <c r="F35" s="3">
-        <v>121500</v>
+        <v>2136600</v>
       </c>
       <c r="G35" s="3">
-        <v>2205900</v>
+        <v>115800</v>
       </c>
       <c r="H35" s="3">
-        <v>1805600</v>
+        <v>2102600</v>
       </c>
       <c r="I35" s="3">
-        <v>1461900</v>
+        <v>1721000</v>
       </c>
       <c r="J35" s="3">
+        <v>1393400</v>
+      </c>
+      <c r="K35" s="3">
         <v>844300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4049400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1607200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2058400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-152100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2674900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1182900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>731100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>245300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>174100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,512 +2387,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18108800</v>
+        <v>17202900</v>
       </c>
       <c r="E41" s="3">
-        <v>13921200</v>
+        <v>17260800</v>
       </c>
       <c r="F41" s="3">
-        <v>14533800</v>
+        <v>13269300</v>
       </c>
       <c r="G41" s="3">
-        <v>13539300</v>
+        <v>13853200</v>
       </c>
       <c r="H41" s="3">
-        <v>12040100</v>
+        <v>12905300</v>
       </c>
       <c r="I41" s="3">
-        <v>11633000</v>
+        <v>11476300</v>
       </c>
       <c r="J41" s="3">
+        <v>11088200</v>
+      </c>
+      <c r="K41" s="3">
         <v>14127400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13978900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14313800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13720900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14340400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12013500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9047500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8896900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8516500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6844800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4658400</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24413800</v>
+        <v>25382400</v>
       </c>
       <c r="E42" s="3">
-        <v>20238400</v>
+        <v>23270600</v>
       </c>
       <c r="F42" s="3">
-        <v>17757100</v>
+        <v>19290700</v>
       </c>
       <c r="G42" s="3">
-        <v>15060400</v>
+        <v>16925600</v>
       </c>
       <c r="H42" s="3">
-        <v>13891600</v>
+        <v>14355200</v>
       </c>
       <c r="I42" s="3">
-        <v>13436700</v>
+        <v>13241100</v>
       </c>
       <c r="J42" s="3">
+        <v>12807500</v>
+      </c>
+      <c r="K42" s="3">
         <v>12728800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11321600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12409000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>11263700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>10636500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>11044100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>10301700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9934000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9326300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>9118800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8207400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12857100</v>
+        <v>14594300</v>
       </c>
       <c r="E43" s="3">
-        <v>11137400</v>
+        <v>12255000</v>
       </c>
       <c r="F43" s="3">
-        <v>11445800</v>
+        <v>10615900</v>
       </c>
       <c r="G43" s="3">
-        <v>14455600</v>
+        <v>10909800</v>
       </c>
       <c r="H43" s="3">
-        <v>13327400</v>
+        <v>13778700</v>
       </c>
       <c r="I43" s="3">
-        <v>12903700</v>
+        <v>12703300</v>
       </c>
       <c r="J43" s="3">
+        <v>12299500</v>
+      </c>
+      <c r="K43" s="3">
         <v>12391300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15166200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14602500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>12082900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>10879500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15438300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>13939800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>11585000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>10443900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>13453700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10786100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6551000</v>
+        <v>5545800</v>
       </c>
       <c r="E44" s="3">
-        <v>5658300</v>
+        <v>6244200</v>
       </c>
       <c r="F44" s="3">
-        <v>5669600</v>
+        <v>5393400</v>
       </c>
       <c r="G44" s="3">
-        <v>5836900</v>
+        <v>5404100</v>
       </c>
       <c r="H44" s="3">
-        <v>7491300</v>
+        <v>5563600</v>
       </c>
       <c r="I44" s="3">
-        <v>6665900</v>
+        <v>7140500</v>
       </c>
       <c r="J44" s="3">
+        <v>6353800</v>
+      </c>
+      <c r="K44" s="3">
         <v>6278000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6381900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7568000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6296000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6264200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6813100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8413100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>6582200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5684200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>6041700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7649600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5173000</v>
+        <v>4949200</v>
       </c>
       <c r="E45" s="3">
-        <v>5845500</v>
+        <v>4930800</v>
       </c>
       <c r="F45" s="3">
-        <v>5708500</v>
+        <v>5571800</v>
       </c>
       <c r="G45" s="3">
-        <v>5110400</v>
+        <v>5441200</v>
       </c>
       <c r="H45" s="3">
-        <v>5222600</v>
+        <v>4871100</v>
       </c>
       <c r="I45" s="3">
-        <v>5399300</v>
+        <v>4978100</v>
       </c>
       <c r="J45" s="3">
+        <v>5146500</v>
+      </c>
+      <c r="K45" s="3">
         <v>4894400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4897000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4465800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4725400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>4671400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4960600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4588300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>5119600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4664400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>5340100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4742600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67103700</v>
+        <v>67674500</v>
       </c>
       <c r="E46" s="3">
-        <v>56800800</v>
+        <v>63961500</v>
       </c>
       <c r="F46" s="3">
-        <v>55114700</v>
+        <v>54141100</v>
       </c>
       <c r="G46" s="3">
-        <v>54002600</v>
+        <v>52533900</v>
       </c>
       <c r="H46" s="3">
-        <v>51973000</v>
+        <v>51473900</v>
       </c>
       <c r="I46" s="3">
-        <v>50038600</v>
+        <v>49539300</v>
       </c>
       <c r="J46" s="3">
+        <v>47695500</v>
+      </c>
+      <c r="K46" s="3">
         <v>50419900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51745700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>53359100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>48088900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>46791900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>50269600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>46290400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>42117700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>38635300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>40799000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>36044100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>128602300</v>
+        <v>126838600</v>
       </c>
       <c r="E47" s="3">
-        <v>126285600</v>
+        <v>122580400</v>
       </c>
       <c r="F47" s="3">
-        <v>122375000</v>
+        <v>120372100</v>
       </c>
       <c r="G47" s="3">
-        <v>119922700</v>
+        <v>116644600</v>
       </c>
       <c r="H47" s="3">
-        <v>117403500</v>
+        <v>114307200</v>
       </c>
       <c r="I47" s="3">
-        <v>116368400</v>
+        <v>111906000</v>
       </c>
       <c r="J47" s="3">
+        <v>110919300</v>
+      </c>
+      <c r="K47" s="3">
         <v>112673900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108107900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>105028900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100663600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97234800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>95431900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94368800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>93033600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89691600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>88131100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>85585600</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12817900</v>
+        <v>12301700</v>
       </c>
       <c r="E48" s="3">
-        <v>12584500</v>
+        <v>12217700</v>
       </c>
       <c r="F48" s="3">
-        <v>12505100</v>
+        <v>11995300</v>
       </c>
       <c r="G48" s="3">
-        <v>11510100</v>
+        <v>11919500</v>
       </c>
       <c r="H48" s="3">
-        <v>11110500</v>
+        <v>10971100</v>
       </c>
       <c r="I48" s="3">
-        <v>10703300</v>
+        <v>10590300</v>
       </c>
       <c r="J48" s="3">
+        <v>10202100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7467500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7153500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6891700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6771400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6684800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7156100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6907000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6844300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6725200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6818600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6749300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16121500</v>
+        <v>15674100</v>
       </c>
       <c r="E49" s="3">
-        <v>16202700</v>
+        <v>15366600</v>
       </c>
       <c r="F49" s="3">
-        <v>16242800</v>
+        <v>15444000</v>
       </c>
       <c r="G49" s="3">
-        <v>16489300</v>
+        <v>15482200</v>
       </c>
       <c r="H49" s="3">
-        <v>15750200</v>
+        <v>15717200</v>
       </c>
       <c r="I49" s="3">
-        <v>15797900</v>
+        <v>15012600</v>
       </c>
       <c r="J49" s="3">
+        <v>15058200</v>
+      </c>
+      <c r="K49" s="3">
         <v>16207400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15923500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9974400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9722800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9561200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10155200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10085800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9963300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9816600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9674600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10031500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15141400</v>
+        <v>14582100</v>
       </c>
       <c r="E52" s="3">
-        <v>15175600</v>
+        <v>14432400</v>
       </c>
       <c r="F52" s="3">
-        <v>15170500</v>
+        <v>14465000</v>
       </c>
       <c r="G52" s="3">
-        <v>15622100</v>
+        <v>14460100</v>
       </c>
       <c r="H52" s="3">
-        <v>14858900</v>
+        <v>14890500</v>
       </c>
       <c r="I52" s="3">
-        <v>14739600</v>
+        <v>14163100</v>
       </c>
       <c r="J52" s="3">
+        <v>14049400</v>
+      </c>
+      <c r="K52" s="3">
         <v>14864300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14574400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13569300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12584200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12079700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12550200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12273800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12010600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11780400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11532000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10644200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>239786900</v>
+        <v>237071100</v>
       </c>
       <c r="E54" s="3">
-        <v>227049300</v>
+        <v>228558600</v>
       </c>
       <c r="F54" s="3">
-        <v>221408100</v>
+        <v>216417400</v>
       </c>
       <c r="G54" s="3">
-        <v>217546800</v>
+        <v>211040400</v>
       </c>
       <c r="H54" s="3">
-        <v>211096100</v>
+        <v>207359900</v>
       </c>
       <c r="I54" s="3">
-        <v>207647900</v>
+        <v>201211300</v>
       </c>
       <c r="J54" s="3">
+        <v>197924500</v>
+      </c>
+      <c r="K54" s="3">
         <v>201633000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>197505000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>188823400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>177830800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>172352500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>175562900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>169925800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>163969500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>156649100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>156955300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>149054800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,344 +3259,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6435000</v>
+        <v>21228800</v>
       </c>
       <c r="E57" s="3">
-        <v>3759700</v>
+        <v>20179900</v>
       </c>
       <c r="F57" s="3">
-        <v>3659600</v>
+        <v>16968700</v>
       </c>
       <c r="G57" s="3">
-        <v>4461600</v>
+        <v>18420800</v>
       </c>
       <c r="H57" s="3">
-        <v>5866000</v>
+        <v>19566000</v>
       </c>
       <c r="I57" s="3">
-        <v>5220600</v>
+        <v>19323600</v>
       </c>
       <c r="J57" s="3">
+        <v>18433300</v>
+      </c>
+      <c r="K57" s="3">
         <v>4729300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5640400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7258600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5298700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4235700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5950600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7876800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6117000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4788900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5555200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6533600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13585000</v>
+        <v>13188400</v>
       </c>
       <c r="E58" s="3">
-        <v>9667000</v>
+        <v>12948900</v>
       </c>
       <c r="F58" s="3">
-        <v>8072200</v>
+        <v>9214300</v>
       </c>
       <c r="G58" s="3">
-        <v>8932200</v>
+        <v>7694200</v>
       </c>
       <c r="H58" s="3">
-        <v>8714300</v>
+        <v>8513900</v>
       </c>
       <c r="I58" s="3">
-        <v>8838900</v>
+        <v>8306200</v>
       </c>
       <c r="J58" s="3">
+        <v>8425000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7602300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7951200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7385100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6803500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6523400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7079100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6759300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6674800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4595400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4746500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3653400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52197300</v>
+        <v>37683500</v>
       </c>
       <c r="E59" s="3">
-        <v>47405600</v>
+        <v>35706900</v>
       </c>
       <c r="F59" s="3">
-        <v>48238800</v>
+        <v>31800700</v>
       </c>
       <c r="G59" s="3">
-        <v>48143100</v>
+        <v>31047400</v>
       </c>
       <c r="H59" s="3">
-        <v>46111100</v>
+        <v>30575400</v>
       </c>
       <c r="I59" s="3">
-        <v>45945300</v>
+        <v>30219600</v>
       </c>
       <c r="J59" s="3">
+        <v>30336700</v>
+      </c>
+      <c r="K59" s="3">
         <v>46095400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>46276800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>43249200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>40326500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>40050600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41407800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>39021200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>37272400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>36932600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>37240600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>33392600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>72217300</v>
+        <v>72100800</v>
       </c>
       <c r="E60" s="3">
-        <v>60832200</v>
+        <v>68835700</v>
       </c>
       <c r="F60" s="3">
-        <v>59970700</v>
+        <v>57983700</v>
       </c>
       <c r="G60" s="3">
-        <v>61536900</v>
+        <v>57162500</v>
       </c>
       <c r="H60" s="3">
-        <v>60691400</v>
+        <v>58655300</v>
       </c>
       <c r="I60" s="3">
-        <v>60004800</v>
+        <v>57849400</v>
       </c>
       <c r="J60" s="3">
+        <v>57195000</v>
+      </c>
+      <c r="K60" s="3">
         <v>58427000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>59868300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>57893000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>52428700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>50809700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>54437500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>53657300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>50064300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>46316800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>47542300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>43579500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7165000</v>
+        <v>6753300</v>
       </c>
       <c r="E61" s="3">
-        <v>6286300</v>
+        <v>6829500</v>
       </c>
       <c r="F61" s="3">
-        <v>6102000</v>
+        <v>5992000</v>
       </c>
       <c r="G61" s="3">
-        <v>6070700</v>
+        <v>5816300</v>
       </c>
       <c r="H61" s="3">
-        <v>5089100</v>
+        <v>5786400</v>
       </c>
       <c r="I61" s="3">
-        <v>5075300</v>
+        <v>4850800</v>
       </c>
       <c r="J61" s="3">
+        <v>4837600</v>
+      </c>
+      <c r="K61" s="3">
         <v>5462100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5183000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4739400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5191200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5636000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5371500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5314100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5437900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6044600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6239000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5809000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>111580900</v>
+        <v>108374200</v>
       </c>
       <c r="E62" s="3">
-        <v>111863200</v>
+        <v>106355900</v>
       </c>
       <c r="F62" s="3">
-        <v>109233300</v>
+        <v>106625100</v>
       </c>
       <c r="G62" s="3">
-        <v>102895700</v>
+        <v>104118300</v>
       </c>
       <c r="H62" s="3">
-        <v>100861600</v>
+        <v>98077400</v>
       </c>
       <c r="I62" s="3">
-        <v>98804800</v>
+        <v>96138600</v>
       </c>
       <c r="J62" s="3">
+        <v>94178200</v>
+      </c>
+      <c r="K62" s="3">
         <v>95022800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>90392600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88830400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85014300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>82853200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>82038700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80277400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>79128200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>76369600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>75790900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>73598000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>191443800</v>
+        <v>187693500</v>
       </c>
       <c r="E66" s="3">
-        <v>185429800</v>
+        <v>182479200</v>
       </c>
       <c r="F66" s="3">
-        <v>181763900</v>
+        <v>176746800</v>
       </c>
       <c r="G66" s="3">
-        <v>176881100</v>
+        <v>173252600</v>
       </c>
       <c r="H66" s="3">
-        <v>173584100</v>
+        <v>168598400</v>
       </c>
       <c r="I66" s="3">
-        <v>170683000</v>
+        <v>165455900</v>
       </c>
       <c r="J66" s="3">
+        <v>162690500</v>
+      </c>
+      <c r="K66" s="3">
         <v>165630400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>161814200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>157562200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>148525000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>145527500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>148082300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>145290100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>140539100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>134498600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>135197800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>128564200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32848000</v>
+        <v>34703500</v>
       </c>
       <c r="E72" s="3">
-        <v>28806700</v>
+        <v>31309900</v>
       </c>
       <c r="F72" s="3">
-        <v>26608700</v>
+        <v>27457800</v>
       </c>
       <c r="G72" s="3">
-        <v>27465900</v>
+        <v>25362700</v>
       </c>
       <c r="H72" s="3">
-        <v>25260000</v>
+        <v>26179800</v>
       </c>
       <c r="I72" s="3">
-        <v>23690900</v>
+        <v>24077200</v>
       </c>
       <c r="J72" s="3">
+        <v>22581600</v>
+      </c>
+      <c r="K72" s="3">
         <v>22300800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>21313100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16989300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15224000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>13021100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>13344800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10669900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9629800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8731300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8598100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8424000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48343100</v>
+        <v>49377500</v>
       </c>
       <c r="E76" s="3">
-        <v>41619500</v>
+        <v>46079400</v>
       </c>
       <c r="F76" s="3">
-        <v>39644200</v>
+        <v>39670600</v>
       </c>
       <c r="G76" s="3">
-        <v>40665700</v>
+        <v>37787800</v>
       </c>
       <c r="H76" s="3">
-        <v>37512000</v>
+        <v>38761500</v>
       </c>
       <c r="I76" s="3">
-        <v>36964900</v>
+        <v>35755400</v>
       </c>
       <c r="J76" s="3">
+        <v>35234000</v>
+      </c>
+      <c r="K76" s="3">
         <v>36002700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35690800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31261200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29305700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26825000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27480600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24635700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23430400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>22150600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21757500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>20490600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4417100</v>
+        <v>3406500</v>
       </c>
       <c r="E81" s="3">
-        <v>2241500</v>
+        <v>4210200</v>
       </c>
       <c r="F81" s="3">
-        <v>121500</v>
+        <v>2136600</v>
       </c>
       <c r="G81" s="3">
-        <v>2205900</v>
+        <v>115800</v>
       </c>
       <c r="H81" s="3">
-        <v>1805600</v>
+        <v>2102600</v>
       </c>
       <c r="I81" s="3">
-        <v>1461900</v>
+        <v>1721000</v>
       </c>
       <c r="J81" s="3">
+        <v>1393400</v>
+      </c>
+      <c r="K81" s="3">
         <v>844300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4049400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1607200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2058400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-152100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2674900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1182900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>731100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>245300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>174100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>42900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>938200</v>
+        <v>905300</v>
       </c>
       <c r="E83" s="3">
-        <v>865900</v>
+        <v>894300</v>
       </c>
       <c r="F83" s="3">
-        <v>1299700</v>
+        <v>825300</v>
       </c>
       <c r="G83" s="3">
-        <v>878900</v>
+        <v>1238900</v>
       </c>
       <c r="H83" s="3">
-        <v>927600</v>
+        <v>837700</v>
       </c>
       <c r="I83" s="3">
-        <v>897700</v>
+        <v>884200</v>
       </c>
       <c r="J83" s="3">
+        <v>855700</v>
+      </c>
+      <c r="K83" s="3">
         <v>918900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1006100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>795100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>783900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>933400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>797600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>783800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>752700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>598700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>696200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>776200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4880400</v>
+        <v>4159700</v>
       </c>
       <c r="E89" s="3">
-        <v>1199900</v>
+        <v>4651900</v>
       </c>
       <c r="F89" s="3">
-        <v>4957500</v>
+        <v>1143700</v>
       </c>
       <c r="G89" s="3">
-        <v>4070300</v>
+        <v>4725400</v>
       </c>
       <c r="H89" s="3">
-        <v>3947300</v>
+        <v>3879700</v>
       </c>
       <c r="I89" s="3">
-        <v>-32300</v>
+        <v>3762500</v>
       </c>
       <c r="J89" s="3">
+        <v>-30800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3435000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4642500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2918100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>833200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5375600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3562000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1945400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>462000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4399600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2055800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>579200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1368600</v>
+        <v>-1064000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1276900</v>
+        <v>-1304500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1201000</v>
+        <v>-1217100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1297500</v>
+        <v>-1144700</v>
       </c>
       <c r="H91" s="3">
-        <v>-975500</v>
+        <v>-1236700</v>
       </c>
       <c r="I91" s="3">
-        <v>-752100</v>
+        <v>-929900</v>
       </c>
       <c r="J91" s="3">
+        <v>-716900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-794100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-709800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-758400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-665200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-661800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-538100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-665300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-512200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-648000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-489200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-880800</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3914400</v>
+        <v>-4484600</v>
       </c>
       <c r="E94" s="3">
-        <v>-4567400</v>
+        <v>-3731100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3134700</v>
+        <v>-4353500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3794700</v>
+        <v>-2988000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2960500</v>
+        <v>-3617000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3105500</v>
+        <v>-2821800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2960100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2618200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4786100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3071600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1794000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2307800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1402300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1974600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1748000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2416700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2784100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3977900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3400</v>
+        <v>-281300</v>
       </c>
       <c r="E96" s="3">
-        <v>-289200</v>
+        <v>-3200</v>
       </c>
       <c r="F96" s="3">
-        <v>500</v>
+        <v>-275700</v>
       </c>
       <c r="G96" s="3">
-        <v>-236700</v>
+        <v>400</v>
       </c>
       <c r="H96" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="I96" s="3">
         <v>400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-240600</v>
-      </c>
       <c r="J96" s="3">
+        <v>-229300</v>
+      </c>
+      <c r="K96" s="3">
         <v>100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-180200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-172800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-6700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-136500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-114700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-112400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3330400</v>
+        <v>365000</v>
       </c>
       <c r="E100" s="3">
-        <v>2789300</v>
+        <v>3174500</v>
       </c>
       <c r="F100" s="3">
-        <v>-763400</v>
+        <v>2658700</v>
       </c>
       <c r="G100" s="3">
-        <v>1116600</v>
+        <v>-727700</v>
       </c>
       <c r="H100" s="3">
-        <v>-554900</v>
+        <v>1064300</v>
       </c>
       <c r="I100" s="3">
-        <v>832800</v>
+        <v>-529000</v>
       </c>
       <c r="J100" s="3">
+        <v>793800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-948600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-225700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>202800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-169300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>774400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>125200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1497700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-137900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2524300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2499700</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-108800</v>
+        <v>-98000</v>
       </c>
       <c r="E101" s="3">
-        <v>-62600</v>
+        <v>-103700</v>
       </c>
       <c r="F101" s="3">
-        <v>-64900</v>
+        <v>-59700</v>
       </c>
       <c r="G101" s="3">
-        <v>107100</v>
+        <v>-61900</v>
       </c>
       <c r="H101" s="3">
-        <v>-24800</v>
+        <v>102100</v>
       </c>
       <c r="I101" s="3">
-        <v>-225400</v>
+        <v>-23600</v>
       </c>
       <c r="J101" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="K101" s="3">
         <v>28500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-196800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>241800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>402800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-571500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>31900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>54700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-173300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>390400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-40300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4187600</v>
+        <v>-57900</v>
       </c>
       <c r="E102" s="3">
-        <v>-640800</v>
+        <v>3991500</v>
       </c>
       <c r="F102" s="3">
-        <v>994500</v>
+        <v>-610800</v>
       </c>
       <c r="G102" s="3">
-        <v>1499200</v>
+        <v>947900</v>
       </c>
       <c r="H102" s="3">
-        <v>407100</v>
+        <v>1429000</v>
       </c>
       <c r="I102" s="3">
-        <v>-2530400</v>
+        <v>388000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2411900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-103200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-566100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>291000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-758900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2326900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2966000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>150700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>217200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1671700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2186400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-939300</v>
       </c>
     </row>
